--- a/xepr_api_options.xlsx
+++ b/xepr_api_options.xlsx
@@ -5,10 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="1182">
   <si>
     <t xml:space="preserve">Current Experiment Dictionary</t>
   </si>
@@ -758,6 +760,2814 @@
   </si>
   <si>
     <t xml:space="preserve"> 'YspecRes'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xepr.XeprCmds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['AboutDialog',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqDisconnectSrv',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgVerbose',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'hpPanStat',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prFit6thOrder',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'repeatExp',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskQMISelect',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpRToQuali',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'AboutLicense',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqExpAbort',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgView',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'hpRemoveButton',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prFit7thOrder',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'runXeprAPI',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskQMIStart',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpRToSec',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Apropos',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqExpActivate',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgWhatLineNr',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'hpSvPanel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prFit8thOrder',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'saveStat',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskQMIStore',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpRange',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'AutoPopup',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqExpBuildDlg',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPnClose',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'hpSysButtons',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prFit9thOrder',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'sfDlgClose',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskQMInteg',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpRelRange',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'BStep_Exp',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqExpCopy',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPnConfig',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'init',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prFitArr',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'sfDlgOpen',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskQMPCancel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpRemoveButton',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Bandwidth_Nutation',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqExpCreateLink',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPnHideAll',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'macro',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prFitBiexp',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'sfDlgToggle',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskQMPDefReg',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpRemoveTool',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CheckAllMacros',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqExpCurrent',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPnOpen',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'mcClose',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prFitCubic',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'sfLdDset',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskQMPNorm',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpRestoreCntxt',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CheckDataset',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqExpCut',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPnToggle',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'mcOpen',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prFitDDyson',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'sfLdFile',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskQMPPick',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpRmouse',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CheckSyntax',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqExpDel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPosLevelTool',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'mcPanel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prFitDGauss',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'stopXeprAPI',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskQMPReport',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpRmvArea',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ChkWarn',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqExpDelAll',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPosMarkerTool',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'mcToggle',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prFitDLorentz',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskAbsSpins',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskQMPSelect',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpRmvGroup',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'EULA',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqExpDesc',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqRemoveButton',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pgAddMenuEntry',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prFitDVoigt',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskBLCompSpl',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskQMPSmooth',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpRmvPt',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ErrDial',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqExpDuplicate',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqRmvGroup',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pgCheckSyntax',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prFitDefUser',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskBLDone',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskQMPStart',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpRmvResults',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Exit',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqExpEdit',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqSampleInfo',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pgClose',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prFitExp',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskBLOrd0',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskQMPStore',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpRmvViewp',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'FStep_Exp',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqExpFromDs',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqServerList',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pgCompile',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prFitExpDec',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskBLOrd1',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskQMPeaks',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpRsetComp',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'FStep_Exp_staticB',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqExpFromPrim',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqServerVis',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pgCopy',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prFitExtend',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskBLOrd2',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskQuantEPR',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpSave',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'FStep_MultiExp',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqExpInstall',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqSetServer',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pgCut',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prFitGauss',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskBLOrd3',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskStore',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpSaveAsc',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'FStep_MultiExp2',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqExpLoad',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqShowPanel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pgDefButton',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prFitLorentz',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskBLOrd4',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskWF_FFTCfwd',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpSaveCntxt',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'FStep_cal',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqExpNew',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqStateVis',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pgDeleteBuf',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prFitPHalf',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskBLOrd5',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskWF_FFTCinv',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpSaveEsp',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'FStep_single',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqExpPaste',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqSvPanel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pgExecute',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prFitParsToDset',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskBLOrd6',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskWF_FFTRfwd',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpSavePv',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'GetStart',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqExpPause',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqSvProps',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pgFind',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prFitRmvUser',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskBLOrd7',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskWF_FFTRinv',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpSaveWmri',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Help',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqExpRemoveLink',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqSysButtons',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pgHidePanel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prFitSat',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskBLOrd8',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskWinFn',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpSelectTool',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'HelpDialog',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqExpRename',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqToggle',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pgLdProps',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prFitSetup',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskBLOrd9',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskWinFnCancel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpSetPt',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Manual',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqExpRun',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqToolAttach',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pgLoad',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prFitSpectTitr',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskBLPolDef',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskWinFnEnd',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpSetSnapPt',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'NUS_HYSCORE_experiment',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqExpSave',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqToolDetach',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pgNew',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prFitSquare',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskBLPolSt',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskWinFnSt',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpSetTool',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Print',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqExpSelect',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqTrace',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pgOpen',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prFitStrExp',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskBLPoly',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskWinFnStore',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpShowAcqMonit',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'PrinterSetup',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqExpStop',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqTypeVis',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pgPanel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prFitVoigt',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskBLSplDef',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vp1DSlice',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpShowPanel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Prompt',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqExpVis',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqXMarkerTool',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pgPaste',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prFtDeconvol',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskBLSplSt',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vp1DSlicePos',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpSliceAxis',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'RLetter',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqHidePanel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqXYMarkerTool',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pgRedo',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prGFactor',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskBLSpline',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vp2DColorScheme',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpSplitViewp',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'SaveAllProps',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqLdPanel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'clAppendMacro',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pgRemoveButton',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prHyperFine',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskBLSub',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vp2DProjection',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpStackScale',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'StartSim',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqLdProps',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'clClear',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pgReplace',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prHyscore',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskBLine',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vp2DViewAngle',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpStore',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'XeprAPIHelp',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqLinkEIE',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'clClose',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pgRmvGroup',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prImag',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskCalCancel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vp2DViewDist',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpSvPanel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'XternIn',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqLinkEndor',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'clDeleteMacros',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pgSave',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prIndexed',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskCalEnd',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vp2DZCenter',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpSvProps',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '__class__',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqMbcClose',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'clHistory',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pgSaveAs',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prInteg',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskCalSt',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vp2DZCurve',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpTaskButtons',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '__delattr__',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqMbcOpen',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'clLoadMacros',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pgSelectBuf',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prInteg2',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskCalStore',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vp2DZRange',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpTitVis',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '__dict__',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqMbcPanel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'clLogClose',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pgSelectLine',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prIntegRep',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskCalib',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpALLmouse',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpToggle',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '__dir__',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqOpen',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'clLogOpen',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pgShowBtns',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prInterpolation',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskEnd',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpAddPt',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpToolCol',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '__doc__',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPanel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'clMacPath',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pgShowCaret',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prInvAbsc',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskFilter',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpAddSnapPt',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpToolWidth',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '__eq__',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPanelProps',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'clMenuVis',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pgShowPanel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prItgConvol',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskFitCancel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpAlign',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpTransf',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '__format__',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqParClose',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'clOpen',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pgSvProps',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prLPSVD',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskFitDef',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpAttachProps',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpUnlinkViewp',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '__ge__',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqParColClean',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'clPanel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pgToggle',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prLinPred',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskFitEnd',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpAttachTool',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'xeprSys',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '__getattribute__',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqParColClear',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'clRecMacro',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pgUndo',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prLinRegr',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskFitExp',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpAutorng',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'xeprapiRunProg']</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '__gt__',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqParColDel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'clStopRec',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pgUtilButtons',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prLineWidth',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskFitLine',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpAxisDsp',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '__hash__',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqParColIns',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'clSysCmd',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pgWhatLineNr',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prMultHarmRec',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskFitPoly',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpBackground',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '__init__',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqParCopy',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'clToggle',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pkgCopyGlbs',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prNatSpline',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskFitSt',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpBckgrndXN',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '__init_subclass__',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqParCut',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddAbscType',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pkgLoad',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prNoOp',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskFitStore',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpCenter',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '__le__',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqParFill',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddAddDesc',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pkgLoadGlbs',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prNormAxes',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskFitting',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpCenterCursor',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '__lt__',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqParFromDs',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddAxisNameUnit',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pkgResetGlbs',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prNormInteg',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskFltCancel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpClear',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '__module__',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqParFromExp',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddBES3T',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pkgSaveGlbs',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prNormInteg2',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskFltSpect',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpClose',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '__ne__',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqParFromFile',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddByteSeq',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pppDeleteProc',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prNormPeaks',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskFltSt',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpColor',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '__new__',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqParFromPrim',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddClose',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pppLoadProc',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prNormPeaks2',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskFltStore',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpCopy',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '__reduce__',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqParOpen',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddClsVis',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pppPath',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prNormSpectrum',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskIntCancel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpCreateTool',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '__reduce_ex__',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqParPanel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddCopy',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pppRmvProc',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prPartialProj',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskIntDefReg',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpCreateViewp',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '__repr__',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqParPaste',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddCurrent',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pppSynth',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prPeakPick',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskIntEnd',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpCrtAttTool',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '__setattr__',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqParSet',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddCut',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prAbs',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prPhase',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskIntInteg',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpCurrTrace',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '__sizeof__',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqParStep',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddData',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prAbsSpins',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prPlaneSelect',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskIntInteg2',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpCurrViewp',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '__str__',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqParToggle',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddDeleteDset',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prAddSlice',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prPolToRect',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskIntNorm',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpCurrent',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '__subclasshook__',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqParsFromDisp',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddDesc',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prAfFit',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prPower',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskIntReport',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpCut',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '__weakref__',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPath',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddFilVis',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prAfSim',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prProd',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskIntSelect',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpCvtViewp',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '_execCmd',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgAbort',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddHidePanel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prAfSpins',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prProjection',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskIntSt',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpData',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'acChangeButton',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgButtons',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddItemFmt',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prArithFunc',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prPseudoMod',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskIntStore',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpDefButton',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'acClose',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgCheckSyntax',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddLdPanel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prAuto1',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prQuali',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskInteg',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpDefMouse',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'acCmdVis',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgCompValid',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddLdProps',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prAuto2',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prRatio',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskPPAddPk',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpDesc',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'acContiguous',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgCompile',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddLoad',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prAuto3',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prReal',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskPPCancel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpDetachTool',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'acDefButton',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgCopy',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddLoadESP',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prAutoDef1',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prRectToPol',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskPPDef',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpDiscardCntxt',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'acGroup',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgCut',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddNew',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prAutoDef2',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prReduce',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskPPDist',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpDistances',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'acHidePanel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgDefButton',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddOpen',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prAutoDef3',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prRobLinRegr',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskPPEnd',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpDsetHistory',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'acIdxVis',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgDefLoad',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddPanStat',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prAverage',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prRotate',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskPPHisto',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpDspType',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'acKeyVis',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgDefNew',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddPanel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prBCF',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prSSIPrep',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskPPNum',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpFulsc',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'acLdPanel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgDefSave',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddPaste',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prBackproj2D',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prSavGol',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskPPPick',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpHideAcqMonit',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'acLdProps',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgDefSaveAs',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddPath',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prBackproj3D',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prSfFit',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskPPPick.old',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpHidePanel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'acList',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgDeleteBuf',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddPathVis',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prBackproj4D',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prSfReport',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskPPRepDist',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpImagDsp',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'acMenuVis',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgFind',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddReLoad',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prBld2DDlg',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prSfSim',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskPPReport',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpIndicatorCol',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'acNamVis',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgHidePanel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddRemove',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prBuild2D',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prSfSpins',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskPPRmvPk',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpLMmouse',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'acOpen',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgLdProps',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddRmvAll',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prBuildCplx',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prShift',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskPPSt',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpLRmouse',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'acOptiSize',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgLoad',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddRsetComp',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prCalFitPoly1',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prSkewProj',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskPPStore',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpLdProps',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'acOrient',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgNew',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddSave',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prCalFitPoly2',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prSlice',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskPeakPick',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpLinkViewp',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'acPanStat',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgPanel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddSaveAs',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prCalFitPoly3',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prSliceProj',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskQDICancel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpLmouse',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'acPanel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgPaste',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddSaveAsc',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prCalFitPoly4',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prSmooth',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskQDIIntMark',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpLoad',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'acRemoveButton',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgPath',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddSaveEsp',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prCalFitSat0',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prSpline',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskQDIIntSig',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpLoadESP',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'acRmvGroup',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgRedo',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddSaveWmri',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prCalFitSat1',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prSqrtAbsc',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskQDINorm',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpMRmouse',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'acShowPanel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgReplace',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddSecurity',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prCalibrate',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prSubst',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskQDIQualMark',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpMessage',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'acSort',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgRmvButton',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddShowPanel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prConcat',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prSum',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskQDIQualSig',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpMmouse',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'acSvPanel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgRmvGroup',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddSizVis',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prConjugate',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prSwapReIm',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskQDIRevert',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpModify',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'acSvProps',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgSave',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddSort',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prCstOperation',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prSym2D',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskQDIStart',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpModifyTool',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'acToggle',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgSaveAs',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddStrucVis',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prDeriv',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prUndo',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskQDInteg',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpMoveViewp',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'afDlgClose',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgSelectBuf',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddSvPanel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prDiff',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prWinDefUser',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskQDPAcceptMark',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpNext',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'afDlgOpen',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgSelectLine',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddSvProps',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prDsIntegRep',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prWinExp',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskQDPAcceptSig',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpNormRange',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'afDlgToggle',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgShowBtns',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddTimVis',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prDsetHistory',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prWinGauss',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskQDPCancel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpOffsInc',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'afLdDset',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgShowCaret',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddTitVis',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prDyNatSpline',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prWinHamming',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskQDPNorm',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpOffset',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'afLdFile',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgShowDef',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddTitle',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prDySpline',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prWinInvTrap',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskQDPQualMark',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpOnscr',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqAutoConnect',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgShowPanel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddToggle',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prExchAbsc',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prWinLorGauss',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskQDPQualSig',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpOpen',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqAutosave',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgShowPrg',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddTypeVis',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prExtract',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prWinResEnhApo',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskQDPReport',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpOrdScale',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqBuildEIE',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgShowShp',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddUsr1Def',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prFFConv',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prWinRmvUser',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskQDPRevert',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpPanProps',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqBuildEndor',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgShpLoad',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddUsr1Vis',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prFFT2D',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prWinSinBell',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskQDPStart',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpPanStat',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqCfgClose',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgShpNew',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddUsr2Def',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prFFTcplx',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prWinTrapeze',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskQDPeaks',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpPanel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqCfgOpen',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgShpSave',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddUsr2Vis',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prFFTreal',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prXCorr',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskQDPickMark',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpPaste',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqCfgPanel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgShpSaveAs',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddUsr3Def',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prFilter',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prXTermAvg',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskQDPickSig',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpPerspAttr',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqClose',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgSvProps',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ddUsr3Vis',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prFit10thOrder',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prZeroFill',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskQMICancel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpPrevRange',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqDefButton',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgUndo',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'hpDefButton',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prFit4thOrder',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'propStat',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskQMIDefReg',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpPrevious',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqPgVerbToggle',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'hpLdPanel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'prFit5thOrder',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskQMIInteg',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpQuaType',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taskQMINorm',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'vpRToPrim',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xepr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['AQ_DT_BOOLEAN',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '_aqGetSplName_',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'copyDsetToSecondary',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'AQ_DT_COMPLEX',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '_aqGetStrParValue_',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'cos',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'AQ_DT_ENUM',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '_callXeprfunc',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'cosech',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'AQ_DT_NUMERIC',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '_cmds',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'cosh',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'AQ_DT_STRING',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '_constantconstants',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'cot',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'AQ_DT_UNKNOWN',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '_dynamicmethods',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'create2DDset',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'AQ_EXP_ACTIVE',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '_findInstances',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'createDset',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'AQ_EXP_CLOSED',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '_getTitle_',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'destroyDset',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'AQ_EXP_EDIT',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '_getprodelprototypes',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'execCmd',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'AQ_EXP_INSTALLED',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '_listofargs',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'exp',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'AQ_EXP_PAUSED',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '_listoffunctions',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'fctFailed',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'AQ_EXP_RUNNING',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '_listofrets',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'fillAbscissa',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'AQ_SPL_AMORPHOUS',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '_lock',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'get2DValue',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'AQ_SPL_CRYSTAL',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '_popvalue',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'getAbscType',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'AQ_SPL_GASEOUS',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '_printmsg',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'getCopyByHandle',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'AQ_SPL_LIQUID',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '_prodeldoc',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'getCopyOfPrimary',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'AQ_SPL_POWDER',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '_pushvalue',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'getCopyOfQualifier',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'AREA',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '_setDestPID',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'getCopyOfResult',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'EUL',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'abs',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'getCopyOfSecondary',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'FALSE',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'acos',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'getCopyOfSlice',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'IDX',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'acot',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'getDimension',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'IGD',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'appendPoint',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'getHandleOfPrimary',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'IMAG_ORD',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'getHandleOfQualifier',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'LAST_ERROR_CODE',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'getHandleOfResult',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'NIL',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqExpBuild',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'getHandleOfSecondary',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'NTUP',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'getMax',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'PI',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'getMin',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'POINT',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'getN2DValues',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'POSITION',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'getNValues',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'REAL_ORD',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqExpRunAndWait',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'getNrOfPoints',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'REGION',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'getSPLReal',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'SET_STATUS',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqExpSync',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'getStatusCode',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'TERMINATE',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqGetBoolParValue',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'getTitle',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'TRUE',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqGetComment',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'getValue',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'UNCHANGED',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqGetExpByHandle',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'halt',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'X_ABSC',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqGetExpByName',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'insertPoint',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'XeprActive',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqGetExpDataset',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'isComplex',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'XeprClose',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqGetExpForDs',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ln',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'XeprCmds',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqGetExpFuList',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'log',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'XeprDataset',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqGetExpFuParList',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'neg',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'XeprExperiment',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqGetExpNameToBuf',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'not',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'XeprGUIrefresh',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqGetExpState',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'onError',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'XeprOpen',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqGetExpStateFinal',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pow',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Xeprbuf',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqGetIntParValue',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'print',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Y_ABSC',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqGetParCoarseSteps',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'printLn',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '_API',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqGetParDimSize',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'random',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '_APIopen',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqGetParFineSteps',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'redrawPrim',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqGetParLabel',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'removePoint',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '__del__',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqGetParMaxValue',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'round',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqGetParMinValue',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'roundErr',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqGetParNbDim',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'sech',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqGetParType',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'seed',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqGetParUnits',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'set2DValue',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqGetRealParValue',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'setAbscType',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqGetSelectedExp',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'setN2DValues',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqGetSplAggrState',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'setTitle',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqGetSplFormula',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'setValue',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqGetSplName',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'sin',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqGetStrParValue',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'sinh',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqIsParLocked',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'sleep',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqMbcFineTune',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'sqrt',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqMbcOperate',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'storeCopyOfDset',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqMbcStandby',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'strcat',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqSetBoolParValue',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'strcmp',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqSetComment',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'strcpy',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqSetIntParValue',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'strlen',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqSetRealParValue',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'tan',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqSetSelectedExp',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'trunc',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqSetSplAggrState',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'verbose',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqSetSplFormula',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'workIndex']</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqSetSplName',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqSetStrParValue',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'aqStepParValue',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'asin',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '_aqGetComment_',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'atan',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '_aqGetParLabel_',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'copyDsetToPrimary',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '_aqGetParUnits_',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'copyDsetToQualifier',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '_aqGetSplFormula_',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'copyDsetToResult',</t>
   </si>
 </sst>
 </file>
@@ -772,6 +3582,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -792,11 +3603,13 @@
       <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Courier New"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -841,16 +3654,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -873,8 +3694,8 @@
   </sheetPr>
   <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M18" activeCellId="0" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -883,12 +3704,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.17"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.96"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -1883,4 +4704,3344 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H102"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.61"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F102" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>987</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C79"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S12" activeCellId="0" sqref="S12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="30.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="4" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/xepr_api_options.xlsx
+++ b/xepr_api_options.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eth_work/Documents/GitHub/autoDeer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16505EBF-E112-CF45-9A34-1FBD9528CA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D45159E-9A5D-1D47-8231-E074C3A40112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CurExp(Normal)" sheetId="1" r:id="rId1"/>
@@ -5178,15 +5178,6 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5205,6 +5196,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5521,8 +5521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5537,1068 +5537,1068 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="4"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="6"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="6"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="6"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="6"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="6"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="K14" s="6"/>
+      <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="K15" s="6"/>
+      <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="K16" s="6"/>
+      <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="K17" s="6"/>
+      <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7" t="s">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="K18" s="6"/>
+      <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7" t="s">
+      <c r="E19" s="3"/>
+      <c r="F19" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7" t="s">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7" t="s">
+      <c r="E20" s="3"/>
+      <c r="F20" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7" t="s">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7" t="s">
+      <c r="E21" s="3"/>
+      <c r="F21" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7" t="s">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7" t="s">
+      <c r="E22" s="3"/>
+      <c r="F22" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7" t="s">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7" t="s">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7" t="s">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7" t="s">
+      <c r="E24" s="3"/>
+      <c r="F24" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7" t="s">
+      <c r="H24" s="4"/>
+      <c r="I24" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7" t="s">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="7" t="s">
+      <c r="E25" s="3"/>
+      <c r="F25" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7" t="s">
+      <c r="H25" s="4"/>
+      <c r="I25" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6" t="s">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7" t="s">
+      <c r="E26" s="3"/>
+      <c r="F26" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7" t="s">
+      <c r="H26" s="4"/>
+      <c r="I26" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="7" t="s">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7" t="s">
+      <c r="H27" s="4"/>
+      <c r="I27" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
     </row>
     <row r="28" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="7" t="s">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7" t="s">
+      <c r="H28" s="4"/>
+      <c r="I28" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
     </row>
     <row r="29" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="7" t="s">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7" t="s">
+      <c r="H29" s="4"/>
+      <c r="I29" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
     </row>
     <row r="30" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="7" t="s">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7" t="s">
+      <c r="H30" s="4"/>
+      <c r="I30" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
     </row>
     <row r="31" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="7" t="s">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7" t="s">
+      <c r="H31" s="4"/>
+      <c r="I31" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
     </row>
     <row r="32" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="7" t="s">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7" t="s">
+      <c r="H32" s="4"/>
+      <c r="I32" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
     </row>
     <row r="33" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="7" t="s">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7" t="s">
+      <c r="H33" s="4"/>
+      <c r="I33" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
     </row>
     <row r="34" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="7" t="s">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7" t="s">
+      <c r="H34" s="4"/>
+      <c r="I34" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
     </row>
     <row r="35" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="7" t="s">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7" t="s">
+      <c r="H35" s="4"/>
+      <c r="I35" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
     </row>
     <row r="36" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="7" t="s">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7" t="s">
+      <c r="H36" s="4"/>
+      <c r="I36" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
     </row>
     <row r="37" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="7" t="s">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7" t="s">
+      <c r="H37" s="4"/>
+      <c r="I37" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
     </row>
     <row r="38" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="7" t="s">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7" t="s">
+      <c r="H38" s="4"/>
+      <c r="I38" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
     </row>
     <row r="39" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="7" t="s">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7" t="s">
+      <c r="H39" s="4"/>
+      <c r="I39" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
     </row>
     <row r="40" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="7" t="s">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7" t="s">
+      <c r="H40" s="4"/>
+      <c r="I40" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="7" t="s">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G41" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7" t="s">
+      <c r="H41" s="4"/>
+      <c r="I41" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
     </row>
     <row r="42" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="7" t="s">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7" t="s">
+      <c r="H42" s="4"/>
+      <c r="I42" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
     </row>
     <row r="43" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="7" t="s">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G43" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7" t="s">
+      <c r="H43" s="4"/>
+      <c r="I43" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
     </row>
     <row r="44" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="7" t="s">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7" t="s">
+      <c r="H44" s="4"/>
+      <c r="I44" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
     </row>
     <row r="45" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="46" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6691,2367 +6691,2367 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="28.6640625" style="6" customWidth="1"/>
-    <col min="3" max="4" width="18.5" style="6" customWidth="1"/>
-    <col min="5" max="6" width="17.6640625" style="6" customWidth="1"/>
-    <col min="7" max="8" width="27.1640625" style="6" customWidth="1"/>
-    <col min="9" max="10" width="18.5" style="6" customWidth="1"/>
-    <col min="11" max="12" width="25.5" style="6" customWidth="1"/>
-    <col min="13" max="13" width="19.1640625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="22.1640625" style="6" customWidth="1"/>
-    <col min="15" max="1025" width="11.5" style="6"/>
+    <col min="1" max="2" width="28.6640625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="18.5" style="3" customWidth="1"/>
+    <col min="5" max="6" width="17.6640625" style="3" customWidth="1"/>
+    <col min="7" max="8" width="27.1640625" style="3" customWidth="1"/>
+    <col min="9" max="10" width="18.5" style="3" customWidth="1"/>
+    <col min="11" max="12" width="25.5" style="3" customWidth="1"/>
+    <col min="13" max="13" width="19.1640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="22.1640625" style="3" customWidth="1"/>
+    <col min="15" max="1025" width="11.5" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
     </row>
     <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="4" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="4" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="4" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="4" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="4" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="4" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="4" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="4" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="4" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="4" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="N12" s="4" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="L13" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="4" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="4" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="M15" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="4" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L16" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="M16" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="4" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="M17" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="N17" s="4" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="M18" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="4" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="L19" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="M19" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="4" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="K20" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="L20" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="M20" s="7" t="s">
+      <c r="M20" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="N20" s="4" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="K21" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="L21" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="M21" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="N21" s="4" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="K22" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="L22" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="M22" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="N22" s="4" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="K23" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="L23" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="M23" s="7" t="s">
+      <c r="M23" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="N23" s="7" t="s">
+      <c r="N23" s="4" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="K24" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="L24" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="M24" s="7" t="s">
+      <c r="M24" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="N24" s="7" t="s">
+      <c r="N24" s="4" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="K25" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="L25" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="M25" s="7" t="s">
+      <c r="M25" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="N25" s="7" t="s">
+      <c r="N25" s="4" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="K26" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="L26" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="M26" s="7" t="s">
+      <c r="M26" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="N26" s="7" t="s">
+      <c r="N26" s="4" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="K27" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="L27" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="M27" s="7" t="s">
+      <c r="M27" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="N27" s="7" t="s">
+      <c r="N27" s="4" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="K28" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="L28" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="M28" s="7" t="s">
+      <c r="M28" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="N28" s="7" t="s">
+      <c r="N28" s="4" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="K29" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="L29" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="M29" s="7" t="s">
+      <c r="M29" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="N29" s="7" t="s">
+      <c r="N29" s="4" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="K30" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="L30" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="M30" s="7" t="s">
+      <c r="M30" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="N30" s="7" t="s">
+      <c r="N30" s="4" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="I31" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="J31" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="K31" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="L31" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="M31" s="7" t="s">
+      <c r="M31" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="N31" s="7" t="s">
+      <c r="N31" s="4" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="J32" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="K32" s="4" t="s">
         <v>673</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="L32" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="M32" s="7" t="s">
+      <c r="M32" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="N32" s="7" t="s">
+      <c r="N32" s="4" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="I33" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="J33" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="K33" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="L33" s="7" t="s">
+      <c r="L33" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="M33" s="7" t="s">
+      <c r="M33" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="N33" s="7" t="s">
+      <c r="N33" s="4" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="I34" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="J34" s="4" t="s">
         <v>700</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="K34" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="L34" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="M34" s="7" t="s">
+      <c r="M34" s="4" t="s">
         <v>703</v>
       </c>
-      <c r="N34" s="7" t="s">
+      <c r="N34" s="4" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="4" t="s">
         <v>712</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="I35" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="J35" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="K35" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="L35" s="4" t="s">
         <v>716</v>
       </c>
-      <c r="M35" s="7" t="s">
+      <c r="M35" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="N35" s="7" t="s">
+      <c r="N35" s="4" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="I36" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="J36" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="K36" s="4" t="s">
         <v>729</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="L36" s="4" t="s">
         <v>730</v>
       </c>
-      <c r="M36" s="7" t="s">
+      <c r="M36" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="N36" s="7" t="s">
+      <c r="N36" s="4" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="4" t="s">
         <v>734</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="4" t="s">
         <v>735</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="4" t="s">
         <v>737</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="4" t="s">
         <v>738</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="4" t="s">
         <v>740</v>
       </c>
-      <c r="I37" s="7" t="s">
+      <c r="I37" s="4" t="s">
         <v>741</v>
       </c>
-      <c r="J37" s="7" t="s">
+      <c r="J37" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="K37" s="4" t="s">
         <v>743</v>
       </c>
-      <c r="L37" s="7" t="s">
+      <c r="L37" s="4" t="s">
         <v>744</v>
       </c>
-      <c r="M37" s="7" t="s">
+      <c r="M37" s="4" t="s">
         <v>745</v>
       </c>
-      <c r="N37" s="7" t="s">
+      <c r="N37" s="4" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="4" t="s">
         <v>747</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="4" t="s">
         <v>748</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="4" t="s">
         <v>749</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="4" t="s">
         <v>750</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="4" t="s">
         <v>751</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="4" t="s">
         <v>754</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="I38" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="J38" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="K38" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="L38" s="7" t="s">
+      <c r="L38" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="M38" s="7" t="s">
+      <c r="M38" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="N38" s="7" t="s">
+      <c r="N38" s="4" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="4" t="s">
         <v>764</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="4" t="s">
         <v>765</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="4" t="s">
         <v>767</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="4" t="s">
         <v>768</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I39" s="4" t="s">
         <v>769</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="J39" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="K39" s="4" t="s">
         <v>771</v>
       </c>
-      <c r="L39" s="7" t="s">
+      <c r="L39" s="4" t="s">
         <v>772</v>
       </c>
-      <c r="M39" s="7" t="s">
+      <c r="M39" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="N39" s="7" t="s">
+      <c r="N39" s="4" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="4" t="s">
         <v>775</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="4" t="s">
         <v>776</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="4" t="s">
         <v>777</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="4" t="s">
         <v>778</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="4" t="s">
         <v>781</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="4" t="s">
         <v>782</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="I40" s="4" t="s">
         <v>783</v>
       </c>
-      <c r="J40" s="7" t="s">
+      <c r="J40" s="4" t="s">
         <v>784</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="K40" s="4" t="s">
         <v>785</v>
       </c>
-      <c r="L40" s="7" t="s">
+      <c r="L40" s="4" t="s">
         <v>786</v>
       </c>
-      <c r="M40" s="7" t="s">
+      <c r="M40" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="N40" s="7" t="s">
+      <c r="N40" s="4" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="4" t="s">
         <v>789</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="4" t="s">
         <v>790</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="4" t="s">
         <v>791</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="4" t="s">
         <v>792</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="4" t="s">
         <v>793</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G41" s="4" t="s">
         <v>795</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="4" t="s">
         <v>796</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="I41" s="4" t="s">
         <v>797</v>
       </c>
-      <c r="J41" s="7" t="s">
+      <c r="J41" s="4" t="s">
         <v>798</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="K41" s="4" t="s">
         <v>799</v>
       </c>
-      <c r="L41" s="7" t="s">
+      <c r="L41" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="M41" s="7" t="s">
+      <c r="M41" s="4" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="4" t="s">
         <v>802</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="4" t="s">
         <v>803</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="4" t="s">
         <v>804</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="4" t="s">
         <v>806</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="4" t="s">
         <v>807</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="4" t="s">
         <v>808</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" s="4" t="s">
         <v>809</v>
       </c>
-      <c r="I42" s="7" t="s">
+      <c r="I42" s="4" t="s">
         <v>810</v>
       </c>
-      <c r="J42" s="7" t="s">
+      <c r="J42" s="4" t="s">
         <v>811</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="K42" s="4" t="s">
         <v>812</v>
       </c>
-      <c r="L42" s="7" t="s">
+      <c r="L42" s="4" t="s">
         <v>813</v>
       </c>
-      <c r="M42" s="7" t="s">
+      <c r="M42" s="4" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="4" t="s">
         <v>816</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="4" t="s">
         <v>817</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="4" t="s">
         <v>818</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="4" t="s">
         <v>819</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="4" t="s">
         <v>820</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G43" s="4" t="s">
         <v>821</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="4" t="s">
         <v>822</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="I43" s="4" t="s">
         <v>823</v>
       </c>
-      <c r="J43" s="7" t="s">
+      <c r="J43" s="4" t="s">
         <v>824</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="K43" s="4" t="s">
         <v>825</v>
       </c>
-      <c r="L43" s="7" t="s">
+      <c r="L43" s="4" t="s">
         <v>826</v>
       </c>
-      <c r="M43" s="7" t="s">
+      <c r="M43" s="4" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="4" t="s">
         <v>828</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="4" t="s">
         <v>829</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="4" t="s">
         <v>830</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="4" t="s">
         <v>831</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="4" t="s">
         <v>832</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="4" t="s">
         <v>833</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="4" t="s">
         <v>834</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="4" t="s">
         <v>835</v>
       </c>
-      <c r="I44" s="7" t="s">
+      <c r="I44" s="4" t="s">
         <v>836</v>
       </c>
-      <c r="J44" s="7" t="s">
+      <c r="J44" s="4" t="s">
         <v>837</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="K44" s="4" t="s">
         <v>838</v>
       </c>
-      <c r="L44" s="7" t="s">
+      <c r="L44" s="4" t="s">
         <v>839</v>
       </c>
-      <c r="M44" s="7" t="s">
+      <c r="M44" s="4" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="4" t="s">
         <v>841</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="4" t="s">
         <v>842</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="4" t="s">
         <v>843</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="4" t="s">
         <v>844</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="4" t="s">
         <v>845</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="4" t="s">
         <v>846</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G45" s="4" t="s">
         <v>847</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H45" s="4" t="s">
         <v>848</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="I45" s="4" t="s">
         <v>849</v>
       </c>
-      <c r="J45" s="7" t="s">
+      <c r="J45" s="4" t="s">
         <v>850</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="K45" s="4" t="s">
         <v>851</v>
       </c>
-      <c r="L45" s="7" t="s">
+      <c r="L45" s="4" t="s">
         <v>852</v>
       </c>
-      <c r="M45" s="7" t="s">
+      <c r="M45" s="4" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="4" t="s">
         <v>854</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="4" t="s">
         <v>856</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="4" t="s">
         <v>858</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="4" t="s">
         <v>859</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="4" t="s">
         <v>860</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="I46" s="4" t="s">
         <v>862</v>
       </c>
-      <c r="J46" s="7" t="s">
+      <c r="J46" s="4" t="s">
         <v>863</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="K46" s="4" t="s">
         <v>864</v>
       </c>
-      <c r="L46" s="7" t="s">
+      <c r="L46" s="4" t="s">
         <v>865</v>
       </c>
-      <c r="M46" s="7" t="s">
+      <c r="M46" s="4" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="4" t="s">
         <v>867</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="4" t="s">
         <v>868</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="4" t="s">
         <v>869</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="4" t="s">
         <v>870</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="4" t="s">
         <v>871</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="4" t="s">
         <v>872</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G47" s="4" t="s">
         <v>873</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="4" t="s">
         <v>874</v>
       </c>
-      <c r="I47" s="7" t="s">
+      <c r="I47" s="4" t="s">
         <v>875</v>
       </c>
-      <c r="J47" s="7" t="s">
+      <c r="J47" s="4" t="s">
         <v>876</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="K47" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="L47" s="7" t="s">
+      <c r="L47" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="M47" s="7" t="s">
+      <c r="M47" s="4" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="4" t="s">
         <v>880</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="4" t="s">
         <v>881</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="4" t="s">
         <v>882</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="4" t="s">
         <v>883</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="4" t="s">
         <v>884</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="4" t="s">
         <v>885</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="G48" s="4" t="s">
         <v>886</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H48" s="4" t="s">
         <v>887</v>
       </c>
-      <c r="I48" s="7" t="s">
+      <c r="I48" s="4" t="s">
         <v>888</v>
       </c>
-      <c r="J48" s="7" t="s">
+      <c r="J48" s="4" t="s">
         <v>889</v>
       </c>
-      <c r="K48" s="7" t="s">
+      <c r="K48" s="4" t="s">
         <v>890</v>
       </c>
-      <c r="L48" s="7" t="s">
+      <c r="L48" s="4" t="s">
         <v>891</v>
       </c>
-      <c r="M48" s="7" t="s">
+      <c r="M48" s="4" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="4" t="s">
         <v>893</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="4" t="s">
         <v>894</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="4" t="s">
         <v>895</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="4" t="s">
         <v>896</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="4" t="s">
         <v>897</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="4" t="s">
         <v>898</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G49" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="H49" s="4" t="s">
         <v>900</v>
       </c>
-      <c r="I49" s="7" t="s">
+      <c r="I49" s="4" t="s">
         <v>901</v>
       </c>
-      <c r="J49" s="7" t="s">
+      <c r="J49" s="4" t="s">
         <v>902</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="K49" s="4" t="s">
         <v>903</v>
       </c>
-      <c r="L49" s="7" t="s">
+      <c r="L49" s="4" t="s">
         <v>904</v>
       </c>
-      <c r="M49" s="7" t="s">
+      <c r="M49" s="4" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="4" t="s">
         <v>906</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="4" t="s">
         <v>907</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="4" t="s">
         <v>908</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="4" t="s">
         <v>909</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="4" t="s">
         <v>910</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="4" t="s">
         <v>911</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="G50" s="4" t="s">
         <v>912</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="H50" s="4" t="s">
         <v>913</v>
       </c>
-      <c r="I50" s="7" t="s">
+      <c r="I50" s="4" t="s">
         <v>914</v>
       </c>
-      <c r="J50" s="7" t="s">
+      <c r="J50" s="4" t="s">
         <v>915</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="K50" s="4" t="s">
         <v>916</v>
       </c>
-      <c r="L50" s="7" t="s">
+      <c r="L50" s="4" t="s">
         <v>917</v>
       </c>
-      <c r="M50" s="7" t="s">
+      <c r="M50" s="4" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="4" t="s">
         <v>919</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="4" t="s">
         <v>920</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="4" t="s">
         <v>921</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="4" t="s">
         <v>922</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="4" t="s">
         <v>923</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F51" s="4" t="s">
         <v>924</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="G51" s="4" t="s">
         <v>925</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="H51" s="4" t="s">
         <v>926</v>
       </c>
-      <c r="I51" s="7" t="s">
+      <c r="I51" s="4" t="s">
         <v>927</v>
       </c>
-      <c r="J51" s="7" t="s">
+      <c r="J51" s="4" t="s">
         <v>928</v>
       </c>
-      <c r="K51" s="7" t="s">
+      <c r="K51" s="4" t="s">
         <v>929</v>
       </c>
-      <c r="L51" s="7" t="s">
+      <c r="L51" s="4" t="s">
         <v>930</v>
       </c>
-      <c r="M51" s="7" t="s">
+      <c r="M51" s="4" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="4" t="s">
         <v>932</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="4" t="s">
         <v>933</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="4" t="s">
         <v>934</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="4" t="s">
         <v>935</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="4" t="s">
         <v>936</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="4" t="s">
         <v>937</v>
       </c>
-      <c r="G52" s="7" t="s">
+      <c r="G52" s="4" t="s">
         <v>938</v>
       </c>
-      <c r="H52" s="7" t="s">
+      <c r="H52" s="4" t="s">
         <v>939</v>
       </c>
-      <c r="I52" s="7" t="s">
+      <c r="I52" s="4" t="s">
         <v>940</v>
       </c>
-      <c r="J52" s="7" t="s">
+      <c r="J52" s="4" t="s">
         <v>941</v>
       </c>
-      <c r="K52" s="7" t="s">
+      <c r="K52" s="4" t="s">
         <v>942</v>
       </c>
-      <c r="L52" s="7" t="s">
+      <c r="L52" s="4" t="s">
         <v>943</v>
       </c>
-      <c r="M52" s="7" t="s">
+      <c r="M52" s="4" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="4" t="s">
         <v>945</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="4" t="s">
         <v>946</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="4" t="s">
         <v>947</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="4" t="s">
         <v>948</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="4" t="s">
         <v>949</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="4" t="s">
         <v>950</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="G53" s="4" t="s">
         <v>951</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="H53" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="I53" s="7" t="s">
+      <c r="I53" s="4" t="s">
         <v>953</v>
       </c>
-      <c r="J53" s="7" t="s">
+      <c r="J53" s="4" t="s">
         <v>954</v>
       </c>
-      <c r="K53" s="7" t="s">
+      <c r="K53" s="4" t="s">
         <v>955</v>
       </c>
-      <c r="L53" s="7" t="s">
+      <c r="L53" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="M53" s="7" t="s">
+      <c r="M53" s="4" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="4" t="s">
         <v>959</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="4" t="s">
         <v>960</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="4" t="s">
         <v>961</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="4" t="s">
         <v>962</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="4" t="s">
         <v>963</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="G54" s="4" t="s">
         <v>964</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="H54" s="4" t="s">
         <v>965</v>
       </c>
-      <c r="I54" s="7" t="s">
+      <c r="I54" s="4" t="s">
         <v>966</v>
       </c>
-      <c r="J54" s="7" t="s">
+      <c r="J54" s="4" t="s">
         <v>967</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="K54" s="4" t="s">
         <v>968</v>
       </c>
-      <c r="L54" s="7" t="s">
+      <c r="L54" s="4" t="s">
         <v>969</v>
       </c>
-      <c r="M54" s="7" t="s">
+      <c r="M54" s="4" t="s">
         <v>970</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="4" t="s">
         <v>971</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="4" t="s">
         <v>972</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="4" t="s">
         <v>973</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="4" t="s">
         <v>974</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="4" t="s">
         <v>975</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" s="4" t="s">
         <v>976</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="G55" s="4" t="s">
         <v>977</v>
       </c>
-      <c r="H55" s="7" t="s">
+      <c r="H55" s="4" t="s">
         <v>978</v>
       </c>
-      <c r="I55" s="7" t="s">
+      <c r="I55" s="4" t="s">
         <v>979</v>
       </c>
-      <c r="J55" s="7" t="s">
+      <c r="J55" s="4" t="s">
         <v>980</v>
       </c>
-      <c r="K55" s="7" t="s">
+      <c r="K55" s="4" t="s">
         <v>981</v>
       </c>
-      <c r="L55" s="7" t="s">
+      <c r="L55" s="4" t="s">
         <v>982</v>
       </c>
-      <c r="M55" s="7" t="s">
+      <c r="M55" s="4" t="s">
         <v>983</v>
       </c>
     </row>
@@ -9079,814 +9079,814 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="23" style="8" customWidth="1"/>
-    <col min="3" max="3" width="23.5" style="8" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="24.5" style="8" customWidth="1"/>
-    <col min="7" max="7" width="21.5" style="8" customWidth="1"/>
-    <col min="8" max="8" width="19" style="8" customWidth="1"/>
-    <col min="9" max="1025" width="11.5" style="8"/>
+    <col min="1" max="1" width="22.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="24.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="19" style="5" customWidth="1"/>
+    <col min="9" max="1025" width="11.5" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="12" t="s">
         <v>984</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>985</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>986</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>987</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>988</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="8" t="s">
         <v>989</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>990</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>691</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>991</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>992</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="8" t="s">
         <v>993</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>994</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>995</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="8" t="s">
         <v>997</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="8" t="s">
         <v>998</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>999</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>1000</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>1001</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="8" t="s">
         <v>1002</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>1003</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>719</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>1004</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="8" t="s">
         <v>1005</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="8" t="s">
         <v>1006</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>1007</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>733</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>1008</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>1009</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>1011</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>747</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>1012</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>1013</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="8" t="s">
         <v>1014</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>1015</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>761</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>1016</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="8" t="s">
         <v>1017</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="8" t="s">
         <v>1018</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>1019</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>775</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="8" t="s">
         <v>881</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="8" t="s">
         <v>1020</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="8" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>1022</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="8" t="s">
         <v>894</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>1023</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="8" t="s">
         <v>1024</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>1025</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>802</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="8" t="s">
         <v>1026</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="8" t="s">
         <v>1027</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="8" t="s">
         <v>1028</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="8" t="s">
         <v>1029</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>815</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="8" t="s">
         <v>1030</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="8" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="8" t="s">
         <v>1032</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>828</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="8" t="s">
         <v>1033</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="8" t="s">
         <v>1034</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="8" t="s">
         <v>1035</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="8" t="s">
         <v>841</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="8" t="s">
         <v>1036</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="8" t="s">
         <v>1037</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="8" t="s">
         <v>1038</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>854</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="8" t="s">
         <v>1039</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="8" t="s">
         <v>1040</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="8" t="s">
         <v>1041</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
         <v>867</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="8" t="s">
         <v>1042</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="8" t="s">
         <v>1043</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="8" t="s">
         <v>1044</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="8" t="s">
         <v>1045</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="8" t="s">
         <v>880</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="8" t="s">
         <v>1046</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="8" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="8" t="s">
         <v>1048</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="8" t="s">
         <v>893</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="8" t="s">
         <v>1049</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="8" t="s">
         <v>1050</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="8" t="s">
         <v>1051</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="8" t="s">
         <v>1052</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="8" t="s">
         <v>906</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="8" t="s">
         <v>1053</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="8" t="s">
         <v>1054</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="8" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="8" t="s">
         <v>919</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="8" t="s">
         <v>1058</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="8" t="s">
         <v>1059</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="8" t="s">
         <v>1060</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="8" t="s">
         <v>932</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="8" t="s">
         <v>1061</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="8" t="s">
         <v>1062</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="8" t="s">
         <v>1063</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="8" t="s">
         <v>1064</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="8" t="s">
         <v>945</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="8" t="s">
         <v>1065</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="8" t="s">
         <v>1066</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="8" t="s">
         <v>1067</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="8" t="s">
         <v>1068</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="8" t="s">
         <v>958</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="8" t="s">
         <v>1069</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="8" t="s">
         <v>1070</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="8" t="s">
         <v>1071</v>
       </c>
-      <c r="G24" s="12"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="8" t="s">
         <v>1072</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="8" t="s">
         <v>971</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="8" t="s">
         <v>1073</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="8" t="s">
         <v>1074</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="8" t="s">
         <v>1075</v>
       </c>
-      <c r="G25" s="12"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="8" t="s">
         <v>1076</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="8" t="s">
         <v>1077</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="8" t="s">
         <v>1078</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="8" t="s">
         <v>1079</v>
       </c>
-      <c r="G26" s="12"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="8" t="s">
         <v>1080</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="8" t="s">
         <v>1081</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="8" t="s">
         <v>1082</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="8" t="s">
         <v>1083</v>
       </c>
-      <c r="G27" s="12"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="8" t="s">
         <v>1084</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="8" t="s">
         <v>1085</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="8" t="s">
         <v>1086</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="8" t="s">
         <v>1087</v>
       </c>
-      <c r="G28" s="12"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="8" t="s">
         <v>1088</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="8" t="s">
         <v>1089</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="8" t="s">
         <v>1090</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="8" t="s">
         <v>1091</v>
       </c>
-      <c r="G29" s="12"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="8" t="s">
         <v>1092</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="8" t="s">
         <v>1093</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="8" t="s">
         <v>1094</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="8" t="s">
         <v>1095</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="8" t="s">
         <v>1096</v>
       </c>
-      <c r="G30" s="12"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="8" t="s">
         <v>1097</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="8" t="s">
         <v>1098</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="8" t="s">
         <v>1099</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="8" t="s">
         <v>1100</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="8" t="s">
         <v>1101</v>
       </c>
-      <c r="G31" s="12"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="8" t="s">
         <v>1102</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="8" t="s">
         <v>1103</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="8" t="s">
         <v>1104</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="8" t="s">
         <v>1105</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="8" t="s">
         <v>1106</v>
       </c>
-      <c r="G32" s="12"/>
-      <c r="I32" s="10"/>
+      <c r="G32" s="9"/>
+      <c r="I32" s="7"/>
     </row>
     <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="8" t="s">
         <v>1107</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="8" t="s">
         <v>1108</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="8" t="s">
         <v>1109</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="8" t="s">
         <v>1110</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="8" t="s">
         <v>1111</v>
       </c>
-      <c r="G33" s="12"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>1112</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="8" t="s">
         <v>1113</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="8" t="s">
         <v>1114</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="8" t="s">
         <v>1115</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="8" t="s">
         <v>1116</v>
       </c>
-      <c r="G34" s="12"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="8" t="s">
         <v>1117</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="8" t="s">
         <v>1118</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="8" t="s">
         <v>1119</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="8" t="s">
         <v>1120</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="8" t="s">
         <v>1121</v>
       </c>
-      <c r="G35" s="12"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="8" t="s">
         <v>1122</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="8" t="s">
         <v>1123</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="8" t="s">
         <v>1124</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="8" t="s">
         <v>1125</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="8" t="s">
         <v>1126</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="8" t="s">
         <v>1127</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="8" t="s">
         <v>1128</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="8" t="s">
         <v>1129</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="8" t="s">
         <v>1130</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="8" t="s">
         <v>1131</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="8" t="s">
         <v>1132</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="8" t="s">
         <v>1133</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="8" t="s">
         <v>1134</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="8" t="s">
         <v>1135</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="8" t="s">
         <v>1136</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="8" t="s">
         <v>1137</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="8" t="s">
         <v>1138</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="8" t="s">
         <v>1139</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="8" t="s">
         <v>1140</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="8" t="s">
         <v>1141</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="8" t="s">
         <v>1142</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="8" t="s">
         <v>1143</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="8" t="s">
         <v>1144</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="8" t="s">
         <v>1145</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="8" t="s">
         <v>1146</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="8" t="s">
         <v>1147</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="8" t="s">
         <v>1148</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="8" t="s">
         <v>1150</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="8" t="s">
         <v>1151</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="8" t="s">
         <v>1152</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="8" t="s">
         <v>1154</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="8" t="s">
         <v>1155</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="8" t="s">
         <v>1156</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="8" t="s">
         <v>1157</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="8" t="s">
         <v>1158</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="8" t="s">
         <v>1159</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="8" t="s">
         <v>1160</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="8" t="s">
         <v>1161</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="8" t="s">
         <v>1162</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="8" t="s">
         <v>1163</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="8" t="s">
         <v>1164</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="8" t="s">
         <v>1165</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="8" t="s">
         <v>1166</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="8" t="s">
         <v>1167</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="8" t="s">
         <v>1168</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="8" t="s">
         <v>1169</v>
       </c>
-      <c r="F45" s="7"/>
+      <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="8" t="s">
         <v>1170</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="8" t="s">
         <v>1171</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="8" t="s">
         <v>1172</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="8" t="s">
         <v>1173</v>
       </c>
-      <c r="F46" s="7"/>
+      <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="8" t="s">
         <v>1174</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="8" t="s">
         <v>1175</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="8" t="s">
         <v>1176</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="8" t="s">
         <v>1177</v>
       </c>
-      <c r="F47" s="7"/>
+      <c r="F47" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9905,2876 +9905,2876 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMS212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="17" style="6" customWidth="1"/>
-    <col min="3" max="4" width="18.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16" style="6" customWidth="1"/>
-    <col min="6" max="8" width="18.1640625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="19.5" style="6" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="17.1640625" style="6" customWidth="1"/>
-    <col min="13" max="17" width="20.5" style="6" customWidth="1"/>
-    <col min="18" max="18" width="14" style="6" customWidth="1"/>
-    <col min="19" max="1033" width="11.5" style="6"/>
+    <col min="1" max="2" width="17" style="3" customWidth="1"/>
+    <col min="3" max="4" width="18.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16" style="3" customWidth="1"/>
+    <col min="6" max="8" width="18.1640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="19.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="17.1640625" style="3" customWidth="1"/>
+    <col min="13" max="17" width="20.5" style="3" customWidth="1"/>
+    <col min="18" max="18" width="14" style="3" customWidth="1"/>
+    <col min="19" max="1033" width="11.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>1178</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+    </row>
+    <row r="2" spans="1:18" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>1179</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>1179</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="2" t="s">
         <v>1181</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="10" t="s">
         <v>1182</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="2" t="s">
         <v>1183</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="10" t="s">
         <v>1184</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="10" t="s">
         <v>1184</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="10" t="s">
         <v>1184</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="10" t="s">
         <v>1184</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="10" t="s">
         <v>1184</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="2" t="s">
         <v>1185</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>1186</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>1458</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>1187</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>1459</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>1188</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>1189</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>1460</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="4" t="s">
         <v>1563</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="4" t="s">
         <v>1190</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="4" t="s">
         <v>1187</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="4" t="s">
         <v>1191</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="4" t="s">
         <v>1192</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="4" t="s">
         <v>1193</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="4" t="s">
         <v>1412</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="4" t="s">
         <v>1564</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="4" t="s">
         <v>1617</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="4" t="s">
         <v>1661</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="4" t="s">
         <v>1187</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>1194</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>1461</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>1195</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>1462</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>1196</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>1197</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>1463</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>1565</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="4" t="s">
         <v>1198</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="4" t="s">
         <v>1195</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="4" t="s">
         <v>1199</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="4" t="s">
         <v>1195</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="4" t="s">
         <v>1200</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="4" t="s">
         <v>1418</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="4" t="s">
         <v>1566</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="4" t="s">
         <v>1618</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="4" t="s">
         <v>1662</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="4" t="s">
         <v>1195</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>1201</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>1464</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>1202</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>1465</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>1203</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>1466</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>1567</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="4" t="s">
         <v>1204</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="4" t="s">
         <v>1205</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="4" t="s">
         <v>1206</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="4" t="s">
         <v>1207</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="4" t="s">
         <v>1208</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="4" t="s">
         <v>1467</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="4" t="s">
         <v>1568</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="4" t="s">
         <v>1619</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="4" t="s">
         <v>1663</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="R5" s="4" t="s">
         <v>1205</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>1203</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>1468</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>1205</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>1469</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>1209</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="4" t="s">
         <v>1470</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="4" t="s">
         <v>1569</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="4" t="s">
         <v>1210</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="4" t="s">
         <v>1211</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="4" t="s">
         <v>1212</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="4" t="s">
         <v>1213</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="4" t="s">
         <v>1214</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="4" t="s">
         <v>1471</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="4" t="s">
         <v>1570</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="4" t="s">
         <v>1620</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="4" t="s">
         <v>1664</v>
       </c>
-      <c r="R6" s="7" t="s">
+      <c r="R6" s="4" t="s">
         <v>1211</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>1215</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>1472</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>1211</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>1473</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="4" t="s">
         <v>1216</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="4" t="s">
         <v>1474</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="4" t="s">
         <v>1217</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="4" t="s">
         <v>1218</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="4" t="s">
         <v>1219</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="4" t="s">
         <v>1220</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="4" t="s">
         <v>1221</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="4" t="s">
         <v>1475</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="4" t="s">
         <v>1416</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="4" t="s">
         <v>1621</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="Q7" s="4" t="s">
         <v>1665</v>
       </c>
-      <c r="R7" s="7" t="s">
+      <c r="R7" s="4" t="s">
         <v>1218</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>1222</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>1236</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>1218</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>1476</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="4" t="s">
         <v>1223</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="4" t="s">
         <v>1477</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="4" t="s">
         <v>1572</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="4" t="s">
         <v>1224</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="4" t="s">
         <v>1225</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="4" t="s">
         <v>1226</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="4" t="s">
         <v>1227</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="4" t="s">
         <v>1228</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="4" t="s">
         <v>1478</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="4" t="s">
         <v>1422</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="P8" s="4" t="s">
         <v>1622</v>
       </c>
-      <c r="Q8" s="7" t="s">
+      <c r="Q8" s="4" t="s">
         <v>1666</v>
       </c>
-      <c r="R8" s="7" t="s">
+      <c r="R8" s="4" t="s">
         <v>1229</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>1223</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>1479</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>1230</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>1480</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="4" t="s">
         <v>1195</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="4" t="s">
         <v>1481</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="4" t="s">
         <v>1573</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="4" t="s">
         <v>1231</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="4" t="s">
         <v>1233</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="4" t="s">
         <v>1234</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="4" t="s">
         <v>1235</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="4" t="s">
         <v>1482</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="O9" s="4" t="s">
         <v>1574</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="P9" s="4" t="s">
         <v>1623</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="Q9" s="4" t="s">
         <v>1667</v>
       </c>
-      <c r="R9" s="7" t="s">
+      <c r="R9" s="4" t="s">
         <v>1236</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="4" t="s">
         <v>1195</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>1483</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>1229</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>1484</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="4" t="s">
         <v>1237</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="4" t="s">
         <v>1485</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="4" t="s">
         <v>1575</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="4" t="s">
         <v>1238</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="4" t="s">
         <v>1239</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="4" t="s">
         <v>1240</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="4" t="s">
         <v>1241</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="4" t="s">
         <v>1486</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="4" t="s">
         <v>1576</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P10" s="4" t="s">
         <v>1624</v>
       </c>
-      <c r="Q10" s="7" t="s">
+      <c r="Q10" s="4" t="s">
         <v>1668</v>
       </c>
-      <c r="R10" s="7" t="s">
+      <c r="R10" s="4" t="s">
         <v>1242</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="4" t="s">
         <v>1243</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>1487</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>1244</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>1488</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="4" t="s">
         <v>1245</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="4" t="s">
         <v>1489</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="4" t="s">
         <v>1577</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="4" t="s">
         <v>1246</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="4" t="s">
         <v>1247</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="4" t="s">
         <v>1249</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="4" t="s">
         <v>1490</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="4" t="s">
         <v>1428</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="P11" s="4" t="s">
         <v>1625</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="Q11" s="4" t="s">
         <v>1669</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>1491</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>1251</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>1492</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="4" t="s">
         <v>1252</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="4" t="s">
         <v>1493</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="4" t="s">
         <v>1578</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="4" t="s">
         <v>1253</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="4" t="s">
         <v>1254</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="4" t="s">
         <v>1255</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="4" t="s">
         <v>1256</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="N12" s="4" t="s">
         <v>1494</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="4" t="s">
         <v>1579</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="P12" s="4" t="s">
         <v>1626</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="Q12" s="4" t="s">
         <v>1670</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="4" t="s">
         <v>1257</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>1495</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>1258</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="4" t="s">
         <v>1496</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="4" t="s">
         <v>1259</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="4" t="s">
         <v>1399</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="4" t="s">
         <v>1580</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="4" t="s">
         <v>1260</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="4" t="s">
         <v>1261</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="L13" s="4" t="s">
         <v>1262</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="4" t="s">
         <v>1263</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="4" t="s">
         <v>1497</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="O13" s="4" t="s">
         <v>1581</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="P13" s="4" t="s">
         <v>1627</v>
       </c>
-      <c r="Q13" s="7" t="s">
+      <c r="Q13" s="4" t="s">
         <v>1671</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="4" t="s">
         <v>1264</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>1498</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="4" t="s">
         <v>1265</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="4" t="s">
         <v>1499</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="4" t="s">
         <v>1266</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="4" t="s">
         <v>1500</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="4" t="s">
         <v>1582</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="4" t="s">
         <v>1267</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="4" t="s">
         <v>1268</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="4" t="s">
         <v>1205</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="4" t="s">
         <v>1269</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="4" t="s">
         <v>1501</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="4" t="s">
         <v>1583</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="P14" s="4" t="s">
         <v>1628</v>
       </c>
-      <c r="Q14" s="7" t="s">
+      <c r="Q14" s="4" t="s">
         <v>1672</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="4" t="s">
         <v>1270</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>1502</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="4" t="s">
         <v>1271</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="4" t="s">
         <v>1236</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="4" t="s">
         <v>1272</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="4" t="s">
         <v>1416</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="4" t="s">
         <v>1584</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="4" t="s">
         <v>1273</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="4" t="s">
         <v>1274</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="4" t="s">
         <v>1211</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="M15" s="4" t="s">
         <v>1275</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="4" t="s">
         <v>1503</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="4" t="s">
         <v>1585</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="P15" s="4" t="s">
         <v>1629</v>
       </c>
-      <c r="Q15" s="7" t="s">
+      <c r="Q15" s="4" t="s">
         <v>1673</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="4" t="s">
         <v>1276</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
         <v>1277</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="4" t="s">
         <v>1504</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="4" t="s">
         <v>1278</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="4" t="s">
         <v>1422</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="4" t="s">
         <v>1586</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="4" t="s">
         <v>1279</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="4" t="s">
         <v>1280</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L16" s="4" t="s">
         <v>1218</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="M16" s="4" t="s">
         <v>1281</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="4" t="s">
         <v>1505</v>
       </c>
-      <c r="O16" s="7" t="s">
+      <c r="O16" s="4" t="s">
         <v>1587</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="P16" s="4" t="s">
         <v>1630</v>
       </c>
-      <c r="Q16" s="7" t="s">
+      <c r="Q16" s="4" t="s">
         <v>1674</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="4" t="s">
         <v>1205</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
         <v>1282</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="F17" s="7" t="s">
+      <c r="D17" s="4"/>
+      <c r="F17" s="4" t="s">
         <v>1283</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="4" t="s">
         <v>1506</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7" t="s">
+      <c r="H17" s="4"/>
+      <c r="I17" s="4" t="s">
         <v>1284</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="4" t="s">
         <v>1285</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="4" t="s">
         <v>1229</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="M17" s="4" t="s">
         <v>1286</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="N17" s="4" t="s">
         <v>1507</v>
       </c>
-      <c r="O17" s="7" t="s">
+      <c r="O17" s="4" t="s">
         <v>1588</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="P17" s="4" t="s">
         <v>1631</v>
       </c>
-      <c r="Q17" s="7" t="s">
+      <c r="Q17" s="4" t="s">
         <v>1675</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="4" t="s">
         <v>1211</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
         <v>1287</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="F18" s="7" t="s">
+      <c r="D18" s="4"/>
+      <c r="F18" s="4" t="s">
         <v>1288</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="4" t="s">
         <v>1508</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7" t="s">
+      <c r="H18" s="4"/>
+      <c r="I18" s="4" t="s">
         <v>1289</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="4" t="s">
         <v>1290</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="4" t="s">
         <v>1291</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="M18" s="4" t="s">
         <v>1292</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="4" t="s">
         <v>1509</v>
       </c>
-      <c r="O18" s="7" t="s">
+      <c r="O18" s="4" t="s">
         <v>1499</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="P18" s="4" t="s">
         <v>1632</v>
       </c>
-      <c r="Q18" s="7" t="s">
+      <c r="Q18" s="4" t="s">
         <v>1676</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="4" t="s">
         <v>1218</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
         <v>1293</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="F19" s="7" t="s">
+      <c r="D19" s="4"/>
+      <c r="F19" s="4" t="s">
         <v>1294</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="4" t="s">
         <v>1510</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7" t="s">
+      <c r="H19" s="4"/>
+      <c r="I19" s="4" t="s">
         <v>1295</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="L19" s="4" t="s">
         <v>1297</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="M19" s="4" t="s">
         <v>1298</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="4" t="s">
         <v>1511</v>
       </c>
-      <c r="O19" s="7" t="s">
+      <c r="O19" s="4" t="s">
         <v>1589</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="P19" s="4" t="s">
         <v>1633</v>
       </c>
-      <c r="Q19" s="7" t="s">
+      <c r="Q19" s="4" t="s">
         <v>1677</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="4" t="s">
         <v>1299</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
         <v>1300</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="F20" s="7" t="s">
+      <c r="D20" s="4"/>
+      <c r="F20" s="4" t="s">
         <v>1301</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="4" t="s">
         <v>1428</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7" t="s">
+      <c r="H20" s="4"/>
+      <c r="I20" s="4" t="s">
         <v>1302</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="K20" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="L20" s="4" t="s">
         <v>1304</v>
       </c>
-      <c r="M20" s="7" t="s">
+      <c r="M20" s="4" t="s">
         <v>1305</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="N20" s="4" t="s">
         <v>1512</v>
       </c>
-      <c r="O20" s="7" t="s">
+      <c r="O20" s="4" t="s">
         <v>1590</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="P20" s="4" t="s">
         <v>1634</v>
       </c>
-      <c r="Q20" s="7" t="s">
+      <c r="Q20" s="4" t="s">
         <v>1678</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="4" t="s">
         <v>1306</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
         <v>1307</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="F21" s="7" t="s">
+      <c r="D21" s="4"/>
+      <c r="F21" s="4" t="s">
         <v>1308</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="4" t="s">
         <v>1513</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7" t="s">
+      <c r="H21" s="4"/>
+      <c r="I21" s="4" t="s">
         <v>1309</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="K21" s="4" t="s">
         <v>1310</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="L21" s="4" t="s">
         <v>1311</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="M21" s="4" t="s">
         <v>1312</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="N21" s="4" t="s">
         <v>1514</v>
       </c>
-      <c r="O21" s="7" t="s">
+      <c r="O21" s="4" t="s">
         <v>1591</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="P21" s="4" t="s">
         <v>1635</v>
       </c>
-      <c r="Q21" s="7" t="s">
+      <c r="Q21" s="4" t="s">
         <v>1679</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="4" t="s">
         <v>1229</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
         <v>1313</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="F22" s="7" t="s">
+      <c r="D22" s="4"/>
+      <c r="F22" s="4" t="s">
         <v>1314</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7" t="s">
+      <c r="H22" s="4"/>
+      <c r="I22" s="4" t="s">
         <v>1315</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="K22" s="4" t="s">
         <v>1316</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="L22" s="4" t="s">
         <v>1317</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="M22" s="4" t="s">
         <v>1318</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="N22" s="4" t="s">
         <v>1516</v>
       </c>
-      <c r="O22" s="7" t="s">
+      <c r="O22" s="4" t="s">
         <v>1592</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="P22" s="4" t="s">
         <v>1636</v>
       </c>
-      <c r="Q22" s="7" t="s">
+      <c r="Q22" s="4" t="s">
         <v>1680</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="4" t="s">
         <v>1319</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
         <v>1320</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="F23" s="7" t="s">
+      <c r="D23" s="4"/>
+      <c r="F23" s="4" t="s">
         <v>1321</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="4" t="s">
         <v>1517</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7" t="s">
+      <c r="H23" s="4"/>
+      <c r="I23" s="4" t="s">
         <v>1322</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="K23" s="4" t="s">
         <v>1323</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="L23" s="4" t="s">
         <v>1324</v>
       </c>
-      <c r="M23" s="7" t="s">
+      <c r="M23" s="4" t="s">
         <v>1325</v>
       </c>
-      <c r="N23" s="7" t="s">
+      <c r="N23" s="4" t="s">
         <v>1518</v>
       </c>
-      <c r="O23" s="7" t="s">
+      <c r="O23" s="4" t="s">
         <v>1593</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="P23" s="4" t="s">
         <v>1637</v>
       </c>
-      <c r="Q23" s="7" t="s">
+      <c r="Q23" s="4" t="s">
         <v>1681</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
         <v>1327</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="F24" s="7" t="s">
+      <c r="D24" s="4"/>
+      <c r="F24" s="4" t="s">
         <v>1328</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="4" t="s">
         <v>1519</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7" t="s">
+      <c r="H24" s="4"/>
+      <c r="I24" s="4" t="s">
         <v>1329</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="K24" s="4" t="s">
         <v>1330</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="L24" s="4" t="s">
         <v>1331</v>
       </c>
-      <c r="M24" s="7" t="s">
+      <c r="M24" s="4" t="s">
         <v>1332</v>
       </c>
-      <c r="N24" s="7" t="s">
+      <c r="N24" s="4" t="s">
         <v>1520</v>
       </c>
-      <c r="O24" s="7" t="s">
+      <c r="O24" s="4" t="s">
         <v>1594</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="P24" s="4" t="s">
         <v>1638</v>
       </c>
-      <c r="Q24" s="7" t="s">
+      <c r="Q24" s="4" t="s">
         <v>1682</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="4" t="s">
         <v>1333</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
         <v>1334</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="F25" s="7" t="s">
+      <c r="D25" s="4"/>
+      <c r="F25" s="4" t="s">
         <v>1335</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="4" t="s">
         <v>1521</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7" t="s">
+      <c r="H25" s="4"/>
+      <c r="I25" s="4" t="s">
         <v>1336</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="K25" s="4" t="s">
         <v>1337</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="L25" s="4" t="s">
         <v>1338</v>
       </c>
-      <c r="M25" s="7" t="s">
+      <c r="M25" s="4" t="s">
         <v>1339</v>
       </c>
-      <c r="N25" s="7" t="s">
+      <c r="N25" s="4" t="s">
         <v>1522</v>
       </c>
-      <c r="O25" s="7" t="s">
+      <c r="O25" s="4" t="s">
         <v>1595</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="P25" s="4" t="s">
         <v>1639</v>
       </c>
-      <c r="Q25" s="7" t="s">
+      <c r="Q25" s="4" t="s">
         <v>1683</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="4" t="s">
         <v>1340</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
         <v>1341</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="F26" s="7" t="s">
+      <c r="D26" s="4"/>
+      <c r="F26" s="4" t="s">
         <v>1342</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="4" t="s">
         <v>1523</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7" t="s">
+      <c r="H26" s="4"/>
+      <c r="I26" s="4" t="s">
         <v>1343</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="K26" s="4" t="s">
         <v>1344</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="L26" s="4" t="s">
         <v>1345</v>
       </c>
-      <c r="M26" s="7" t="s">
+      <c r="M26" s="4" t="s">
         <v>1346</v>
       </c>
-      <c r="N26" s="7" t="s">
+      <c r="N26" s="4" t="s">
         <v>1524</v>
       </c>
-      <c r="O26" s="7" t="s">
+      <c r="O26" s="4" t="s">
         <v>1596</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="P26" s="4" t="s">
         <v>1640</v>
       </c>
-      <c r="Q26" s="7" t="s">
+      <c r="Q26" s="4" t="s">
         <v>1684</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="4" t="s">
         <v>1347</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
         <v>1348</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="F27" s="7" t="s">
+      <c r="D27" s="4"/>
+      <c r="F27" s="4" t="s">
         <v>1349</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="4" t="s">
         <v>1525</v>
       </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7" t="s">
+      <c r="H27" s="4"/>
+      <c r="I27" s="4" t="s">
         <v>1350</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="K27" s="4" t="s">
         <v>1351</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="L27" s="4" t="s">
         <v>1236</v>
       </c>
-      <c r="M27" s="7" t="s">
+      <c r="M27" s="4" t="s">
         <v>1352</v>
       </c>
-      <c r="N27" s="7" t="s">
+      <c r="N27" s="4" t="s">
         <v>1526</v>
       </c>
-      <c r="O27" s="7" t="s">
+      <c r="O27" s="4" t="s">
         <v>1597</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="P27" s="4" t="s">
         <v>1641</v>
       </c>
-      <c r="Q27" s="7" t="s">
+      <c r="Q27" s="4" t="s">
         <v>1578</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="4" t="s">
         <v>1353</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
         <v>1354</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="F28" s="7" t="s">
+      <c r="D28" s="4"/>
+      <c r="F28" s="4" t="s">
         <v>1355</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="4" t="s">
         <v>1527</v>
       </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7" t="s">
+      <c r="H28" s="4"/>
+      <c r="I28" s="4" t="s">
         <v>1356</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="K28" s="4" t="s">
         <v>1357</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="L28" s="4" t="s">
         <v>1358</v>
       </c>
-      <c r="M28" s="7" t="s">
+      <c r="M28" s="4" t="s">
         <v>1359</v>
       </c>
-      <c r="N28" s="7" t="s">
+      <c r="N28" s="4" t="s">
         <v>1528</v>
       </c>
-      <c r="O28" s="7" t="s">
+      <c r="O28" s="4" t="s">
         <v>1598</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="P28" s="4" t="s">
         <v>1642</v>
       </c>
-      <c r="Q28" s="7" t="s">
+      <c r="Q28" s="4" t="s">
         <v>1685</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="4" t="s">
         <v>1360</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
         <v>1361</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="F29" s="7" t="s">
+      <c r="D29" s="4"/>
+      <c r="F29" s="4" t="s">
         <v>1205</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="4" t="s">
         <v>1529</v>
       </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7" t="s">
+      <c r="H29" s="4"/>
+      <c r="I29" s="4" t="s">
         <v>1362</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="K29" s="4" t="s">
         <v>1363</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="L29" s="4" t="s">
         <v>1364</v>
       </c>
-      <c r="M29" s="7" t="s">
+      <c r="M29" s="4" t="s">
         <v>1365</v>
       </c>
-      <c r="N29" s="7" t="s">
+      <c r="N29" s="4" t="s">
         <v>1530</v>
       </c>
-      <c r="O29" s="7" t="s">
+      <c r="O29" s="4" t="s">
         <v>1599</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="P29" s="4" t="s">
         <v>1643</v>
       </c>
-      <c r="Q29" s="7" t="s">
+      <c r="Q29" s="4" t="s">
         <v>1686</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7" t="s">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
         <v>1367</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="F30" s="7" t="s">
+      <c r="D30" s="4"/>
+      <c r="F30" s="4" t="s">
         <v>1211</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="4" t="s">
         <v>1531</v>
       </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7" t="s">
+      <c r="H30" s="4"/>
+      <c r="I30" s="4" t="s">
         <v>1368</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="K30" s="4" t="s">
         <v>1369</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="L30" s="4" t="s">
         <v>1370</v>
       </c>
-      <c r="M30" s="7" t="s">
+      <c r="M30" s="4" t="s">
         <v>1371</v>
       </c>
-      <c r="N30" s="7" t="s">
+      <c r="N30" s="4" t="s">
         <v>1532</v>
       </c>
-      <c r="O30" s="7" t="s">
+      <c r="O30" s="4" t="s">
         <v>1600</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="P30" s="4" t="s">
         <v>1644</v>
       </c>
-      <c r="Q30" s="7" t="s">
+      <c r="Q30" s="4" t="s">
         <v>1687</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="4" t="s">
         <v>1372</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
         <v>1373</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="F31" s="7" t="s">
+      <c r="D31" s="4"/>
+      <c r="F31" s="4" t="s">
         <v>1218</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="4" t="s">
         <v>1533</v>
       </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7" t="s">
+      <c r="H31" s="4"/>
+      <c r="I31" s="4" t="s">
         <v>1374</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="L31" s="4" t="s">
         <v>1375</v>
       </c>
-      <c r="M31" s="7" t="s">
+      <c r="M31" s="4" t="s">
         <v>1376</v>
       </c>
-      <c r="N31" s="7" t="s">
+      <c r="N31" s="4" t="s">
         <v>1534</v>
       </c>
-      <c r="O31" s="7" t="s">
+      <c r="O31" s="4" t="s">
         <v>1601</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="P31" s="4" t="s">
         <v>1645</v>
       </c>
-      <c r="Q31" s="7" t="s">
+      <c r="Q31" s="4" t="s">
         <v>1688</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="4" t="s">
         <v>1377</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7" t="s">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="s">
         <v>1378</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="F32" s="7" t="s">
+      <c r="D32" s="4"/>
+      <c r="F32" s="4" t="s">
         <v>1379</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="4" t="s">
         <v>1535</v>
       </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7" t="s">
+      <c r="H32" s="4"/>
+      <c r="I32" s="4" t="s">
         <v>1380</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="L32" s="4" t="s">
         <v>1381</v>
       </c>
-      <c r="M32" s="7" t="s">
+      <c r="M32" s="4" t="s">
         <v>1382</v>
       </c>
-      <c r="N32" s="7" t="s">
+      <c r="N32" s="4" t="s">
         <v>1536</v>
       </c>
-      <c r="O32" s="7" t="s">
+      <c r="O32" s="4" t="s">
         <v>1602</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="P32" s="4" t="s">
         <v>1646</v>
       </c>
-      <c r="Q32" s="7" t="s">
+      <c r="Q32" s="4" t="s">
         <v>1689</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="4" t="s">
         <v>1383</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7" t="s">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4" t="s">
         <v>1384</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="F33" s="7" t="s">
+      <c r="D33" s="4"/>
+      <c r="F33" s="4" t="s">
         <v>1225</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="4" t="s">
         <v>1537</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7" t="s">
+      <c r="H33" s="4"/>
+      <c r="I33" s="4" t="s">
         <v>1385</v>
       </c>
-      <c r="L33" s="7" t="s">
+      <c r="L33" s="4" t="s">
         <v>1386</v>
       </c>
-      <c r="M33" s="7" t="s">
+      <c r="M33" s="4" t="s">
         <v>1387</v>
       </c>
-      <c r="N33" s="7" t="s">
+      <c r="N33" s="4" t="s">
         <v>1538</v>
       </c>
-      <c r="O33" s="7" t="s">
+      <c r="O33" s="4" t="s">
         <v>1603</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="P33" s="4" t="s">
         <v>1647</v>
       </c>
-      <c r="Q33" s="7" t="s">
+      <c r="Q33" s="4" t="s">
         <v>1690</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="4" t="s">
         <v>1388</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7" t="s">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
         <v>1389</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="F34" s="7" t="s">
+      <c r="D34" s="4"/>
+      <c r="F34" s="4" t="s">
         <v>1390</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="4" t="s">
         <v>1539</v>
       </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7" t="s">
+      <c r="H34" s="4"/>
+      <c r="I34" s="4" t="s">
         <v>1391</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="L34" s="4" t="s">
         <v>1392</v>
       </c>
-      <c r="M34" s="7" t="s">
+      <c r="M34" s="4" t="s">
         <v>1393</v>
       </c>
-      <c r="N34" s="7" t="s">
+      <c r="N34" s="4" t="s">
         <v>1540</v>
       </c>
-      <c r="O34" s="7" t="s">
+      <c r="O34" s="4" t="s">
         <v>1604</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="P34" s="4" t="s">
         <v>1648</v>
       </c>
-      <c r="Q34" s="7" t="s">
+      <c r="Q34" s="4" t="s">
         <v>1691</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="4" t="s">
         <v>1394</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7" t="s">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4" t="s">
         <v>1395</v>
       </c>
-      <c r="D35" s="7"/>
-      <c r="F35" s="7" t="s">
+      <c r="D35" s="4"/>
+      <c r="F35" s="4" t="s">
         <v>1299</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="4" t="s">
         <v>1541</v>
       </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7" t="s">
+      <c r="H35" s="4"/>
+      <c r="I35" s="4" t="s">
         <v>1396</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="L35" s="4" t="s">
         <v>1397</v>
       </c>
-      <c r="M35" s="7" t="s">
+      <c r="M35" s="4" t="s">
         <v>1398</v>
       </c>
-      <c r="N35" s="7" t="s">
+      <c r="N35" s="4" t="s">
         <v>1465</v>
       </c>
-      <c r="O35" s="7" t="s">
+      <c r="O35" s="4" t="s">
         <v>1605</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="P35" s="4" t="s">
         <v>1649</v>
       </c>
-      <c r="Q35" s="7" t="s">
+      <c r="Q35" s="4" t="s">
         <v>1692</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="4" t="s">
         <v>1399</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7" t="s">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4" t="s">
         <v>1400</v>
       </c>
-      <c r="D36" s="7"/>
-      <c r="F36" s="7" t="s">
+      <c r="D36" s="4"/>
+      <c r="F36" s="4" t="s">
         <v>1229</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="4" t="s">
         <v>1542</v>
       </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7" t="s">
+      <c r="H36" s="4"/>
+      <c r="I36" s="4" t="s">
         <v>1401</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="L36" s="4" t="s">
         <v>1402</v>
       </c>
-      <c r="M36" s="7" t="s">
+      <c r="M36" s="4" t="s">
         <v>1403</v>
       </c>
-      <c r="N36" s="7" t="s">
+      <c r="N36" s="4" t="s">
         <v>1543</v>
       </c>
-      <c r="O36" s="7" t="s">
+      <c r="O36" s="4" t="s">
         <v>1606</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="P36" s="4" t="s">
         <v>1650</v>
       </c>
-      <c r="Q36" s="7" t="s">
+      <c r="Q36" s="4" t="s">
         <v>1693</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="4" t="s">
         <v>1404</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7" t="s">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4" t="s">
         <v>1405</v>
       </c>
-      <c r="D37" s="7"/>
-      <c r="F37" s="7" t="s">
+      <c r="D37" s="4"/>
+      <c r="F37" s="4" t="s">
         <v>1406</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="4" t="s">
         <v>1544</v>
       </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7" t="s">
+      <c r="H37" s="4"/>
+      <c r="I37" s="4" t="s">
         <v>1407</v>
       </c>
-      <c r="L37" s="7" t="s">
+      <c r="L37" s="4" t="s">
         <v>1408</v>
       </c>
-      <c r="M37" s="7" t="s">
+      <c r="M37" s="4" t="s">
         <v>1409</v>
       </c>
-      <c r="N37" s="7" t="s">
+      <c r="N37" s="4" t="s">
         <v>1545</v>
       </c>
-      <c r="O37" s="7" t="s">
+      <c r="O37" s="4" t="s">
         <v>1607</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="P37" s="4" t="s">
         <v>1651</v>
       </c>
-      <c r="Q37" s="7"/>
+      <c r="Q37" s="4"/>
     </row>
     <row r="38" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="4" t="s">
         <v>1410</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7" t="s">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4" t="s">
         <v>1411</v>
       </c>
-      <c r="D38" s="7"/>
-      <c r="F38" s="7" t="s">
+      <c r="D38" s="4"/>
+      <c r="F38" s="4" t="s">
         <v>1412</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="4" t="s">
         <v>1546</v>
       </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7" t="s">
+      <c r="H38" s="4"/>
+      <c r="I38" s="4" t="s">
         <v>1413</v>
       </c>
-      <c r="L38" s="7" t="s">
+      <c r="L38" s="4" t="s">
         <v>1414</v>
       </c>
-      <c r="M38" s="7" t="s">
+      <c r="M38" s="4" t="s">
         <v>1415</v>
       </c>
-      <c r="N38" s="7" t="s">
+      <c r="N38" s="4" t="s">
         <v>1547</v>
       </c>
-      <c r="O38" s="7" t="s">
+      <c r="O38" s="4" t="s">
         <v>1608</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="P38" s="4" t="s">
         <v>1652</v>
       </c>
-      <c r="Q38" s="7"/>
+      <c r="Q38" s="4"/>
     </row>
     <row r="39" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="4" t="s">
         <v>1416</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7" t="s">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4" t="s">
         <v>1417</v>
       </c>
-      <c r="D39" s="7"/>
-      <c r="F39" s="7" t="s">
+      <c r="D39" s="4"/>
+      <c r="F39" s="4" t="s">
         <v>1418</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="4" t="s">
         <v>1548</v>
       </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7" t="s">
+      <c r="H39" s="4"/>
+      <c r="I39" s="4" t="s">
         <v>1419</v>
       </c>
-      <c r="L39" s="7" t="s">
+      <c r="L39" s="4" t="s">
         <v>1420</v>
       </c>
-      <c r="M39" s="7" t="s">
+      <c r="M39" s="4" t="s">
         <v>1421</v>
       </c>
-      <c r="N39" s="7" t="s">
+      <c r="N39" s="4" t="s">
         <v>1549</v>
       </c>
-      <c r="O39" s="7" t="s">
+      <c r="O39" s="4" t="s">
         <v>1609</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="P39" s="4" t="s">
         <v>1653</v>
       </c>
-      <c r="Q39" s="7"/>
+      <c r="Q39" s="4"/>
     </row>
     <row r="40" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="4" t="s">
         <v>1422</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7" t="s">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4" t="s">
         <v>1423</v>
       </c>
-      <c r="D40" s="7"/>
-      <c r="F40" s="7" t="s">
+      <c r="D40" s="4"/>
+      <c r="F40" s="4" t="s">
         <v>1424</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="4" t="s">
         <v>1550</v>
       </c>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7" t="s">
+      <c r="H40" s="4"/>
+      <c r="I40" s="4" t="s">
         <v>1425</v>
       </c>
-      <c r="L40" s="7" t="s">
+      <c r="L40" s="4" t="s">
         <v>1426</v>
       </c>
-      <c r="M40" s="7" t="s">
+      <c r="M40" s="4" t="s">
         <v>1427</v>
       </c>
-      <c r="N40" s="7" t="s">
+      <c r="N40" s="4" t="s">
         <v>1551</v>
       </c>
-      <c r="O40" s="7" t="s">
+      <c r="O40" s="4" t="s">
         <v>1610</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="P40" s="4" t="s">
         <v>1654</v>
       </c>
-      <c r="Q40" s="7"/>
+      <c r="Q40" s="4"/>
     </row>
     <row r="41" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="4" t="s">
         <v>1428</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7" t="s">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4" t="s">
         <v>1429</v>
       </c>
-      <c r="D41" s="7"/>
-      <c r="F41" s="7" t="s">
+      <c r="D41" s="4"/>
+      <c r="F41" s="4" t="s">
         <v>1430</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G41" s="4" t="s">
         <v>1552</v>
       </c>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7" t="s">
+      <c r="H41" s="4"/>
+      <c r="I41" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="M41" s="7" t="s">
+      <c r="M41" s="4" t="s">
         <v>1432</v>
       </c>
-      <c r="N41" s="7" t="s">
+      <c r="N41" s="4" t="s">
         <v>1553</v>
       </c>
-      <c r="O41" s="7" t="s">
+      <c r="O41" s="4" t="s">
         <v>1611</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="P41" s="4" t="s">
         <v>1655</v>
       </c>
-      <c r="Q41" s="7"/>
+      <c r="Q41" s="4"/>
     </row>
     <row r="42" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="4" t="s">
         <v>1433</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7" t="s">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4" t="s">
         <v>1434</v>
       </c>
-      <c r="D42" s="7"/>
-      <c r="F42" s="7" t="s">
+      <c r="D42" s="4"/>
+      <c r="F42" s="4" t="s">
         <v>1435</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="4" t="s">
         <v>1554</v>
       </c>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7" t="s">
+      <c r="H42" s="4"/>
+      <c r="I42" s="4" t="s">
         <v>1436</v>
       </c>
-      <c r="M42" s="7" t="s">
+      <c r="M42" s="4" t="s">
         <v>1437</v>
       </c>
-      <c r="N42" s="7" t="s">
+      <c r="N42" s="4" t="s">
         <v>1555</v>
       </c>
-      <c r="O42" s="7" t="s">
+      <c r="O42" s="4" t="s">
         <v>1612</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="P42" s="4" t="s">
         <v>1656</v>
       </c>
-      <c r="Q42" s="7"/>
+      <c r="Q42" s="4"/>
     </row>
     <row r="43" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="4" t="s">
         <v>1438</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7" t="s">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4" t="s">
         <v>1439</v>
       </c>
-      <c r="D43" s="7"/>
-      <c r="F43" s="7" t="s">
+      <c r="D43" s="4"/>
+      <c r="F43" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G43" s="4" t="s">
         <v>1556</v>
       </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7" t="s">
+      <c r="H43" s="4"/>
+      <c r="I43" s="4" t="s">
         <v>1441</v>
       </c>
-      <c r="M43" s="7" t="s">
+      <c r="M43" s="4" t="s">
         <v>1442</v>
       </c>
-      <c r="N43" s="7" t="s">
+      <c r="N43" s="4" t="s">
         <v>1557</v>
       </c>
-      <c r="O43" s="7" t="s">
+      <c r="O43" s="4" t="s">
         <v>1613</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="P43" s="4" t="s">
         <v>1657</v>
       </c>
-      <c r="Q43" s="7"/>
+      <c r="Q43" s="4"/>
     </row>
     <row r="44" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="4" t="s">
         <v>1443</v>
       </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7" t="s">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4" t="s">
         <v>1444</v>
       </c>
-      <c r="D44" s="7"/>
-      <c r="F44" s="7" t="s">
+      <c r="D44" s="4"/>
+      <c r="F44" s="4" t="s">
         <v>1445</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="4" t="s">
         <v>1236</v>
       </c>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7" t="s">
+      <c r="H44" s="4"/>
+      <c r="I44" s="4" t="s">
         <v>1446</v>
       </c>
-      <c r="M44" s="7" t="s">
+      <c r="M44" s="4" t="s">
         <v>1447</v>
       </c>
-      <c r="N44" s="7" t="s">
+      <c r="N44" s="4" t="s">
         <v>1558</v>
       </c>
-      <c r="O44" s="7" t="s">
+      <c r="O44" s="4" t="s">
         <v>1614</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="P44" s="4" t="s">
         <v>1658</v>
       </c>
-      <c r="Q44" s="7"/>
+      <c r="Q44" s="4"/>
     </row>
     <row r="45" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="4" t="s">
         <v>1448</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7" t="s">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4" t="s">
         <v>1449</v>
       </c>
-      <c r="D45" s="7"/>
-      <c r="F45" s="7" t="s">
+      <c r="D45" s="4"/>
+      <c r="F45" s="4" t="s">
         <v>1450</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G45" s="4" t="s">
         <v>1559</v>
       </c>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7" t="s">
+      <c r="H45" s="4"/>
+      <c r="I45" s="4" t="s">
         <v>1451</v>
       </c>
-      <c r="M45" s="7" t="s">
+      <c r="M45" s="4" t="s">
         <v>1452</v>
       </c>
-      <c r="N45" s="7" t="s">
+      <c r="N45" s="4" t="s">
         <v>1560</v>
       </c>
-      <c r="O45" s="7" t="s">
+      <c r="O45" s="4" t="s">
         <v>1615</v>
       </c>
-      <c r="P45" s="7" t="s">
+      <c r="P45" s="4" t="s">
         <v>1659</v>
       </c>
-      <c r="Q45" s="7"/>
+      <c r="Q45" s="4"/>
     </row>
     <row r="46" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="4" t="s">
         <v>1453</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7" t="s">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4" t="s">
         <v>1454</v>
       </c>
-      <c r="D46" s="7"/>
-      <c r="F46" s="7" t="s">
+      <c r="D46" s="4"/>
+      <c r="F46" s="4" t="s">
         <v>1455</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="4" t="s">
         <v>1561</v>
       </c>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7" t="s">
+      <c r="H46" s="4"/>
+      <c r="I46" s="4" t="s">
         <v>1456</v>
       </c>
-      <c r="M46" s="7" t="s">
+      <c r="M46" s="4" t="s">
         <v>1457</v>
       </c>
-      <c r="N46" s="7" t="s">
+      <c r="N46" s="4" t="s">
         <v>1562</v>
       </c>
-      <c r="O46" s="7" t="s">
+      <c r="O46" s="4" t="s">
         <v>1616</v>
       </c>
-      <c r="P46" s="7" t="s">
+      <c r="P46" s="4" t="s">
         <v>1660</v>
       </c>
-      <c r="Q46" s="7"/>
+      <c r="Q46" s="4"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="Q47" s="7"/>
+      <c r="B47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="Q47" s="4"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="Q48" s="7"/>
+      <c r="B48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="Q48" s="4"/>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="Q49" s="7"/>
+      <c r="B49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="Q49" s="4"/>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="Q50" s="7"/>
+      <c r="B50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="Q50" s="4"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="Q51" s="7"/>
+      <c r="B51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="Q51" s="4"/>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="Q52" s="7"/>
+      <c r="B52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="Q52" s="4"/>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="Q53" s="7"/>
+      <c r="B53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="Q53" s="4"/>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="Q54" s="7"/>
+      <c r="B54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="Q54" s="4"/>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="Q55" s="7"/>
+      <c r="B55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="Q55" s="4"/>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="Q56" s="7"/>
+      <c r="B56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="Q56" s="4"/>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="Q57" s="7"/>
+      <c r="B57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="Q57" s="4"/>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="Q58" s="7"/>
+      <c r="B58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="Q58" s="4"/>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="Q59" s="7"/>
+      <c r="B59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="Q59" s="4"/>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="Q60" s="7"/>
+      <c r="D60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="Q60" s="4"/>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="Q61" s="7"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="Q61" s="4"/>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="Q62" s="7"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="Q62" s="4"/>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="Q63" s="7"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="Q63" s="4"/>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="Q64" s="7"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="Q64" s="4"/>
     </row>
     <row r="65" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="Q65" s="7"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="Q65" s="4"/>
     </row>
     <row r="66" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="Q66" s="7"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="Q66" s="4"/>
     </row>
     <row r="67" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="Q67" s="7"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="Q67" s="4"/>
     </row>
     <row r="68" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="Q68" s="7"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="Q68" s="4"/>
     </row>
     <row r="69" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="Q69" s="7"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="Q69" s="4"/>
     </row>
     <row r="70" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="Q70" s="7"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="Q70" s="4"/>
     </row>
     <row r="71" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="Q71" s="7"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="Q71" s="4"/>
     </row>
     <row r="72" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="Q72" s="7"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="Q72" s="4"/>
     </row>
     <row r="73" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="Q73" s="7"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="Q73" s="4"/>
     </row>
     <row r="74" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="Q74" s="7"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="Q74" s="4"/>
     </row>
     <row r="75" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="Q75" s="7"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="Q75" s="4"/>
     </row>
     <row r="76" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="Q76" s="7"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="Q76" s="4"/>
     </row>
     <row r="77" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="Q77" s="7"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="Q77" s="4"/>
     </row>
     <row r="78" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="Q78" s="7"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="Q78" s="4"/>
     </row>
     <row r="79" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="Q79" s="7"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="Q79" s="4"/>
     </row>
     <row r="80" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="Q80" s="7"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="Q80" s="4"/>
     </row>
     <row r="81" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="P81" s="7"/>
-      <c r="Q81" s="7"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
     </row>
     <row r="82" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="P82" s="7"/>
-      <c r="Q82" s="7"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
     </row>
     <row r="83" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="P83" s="7"/>
-      <c r="Q83" s="7"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
     </row>
     <row r="84" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="P84" s="7"/>
-      <c r="Q84" s="7"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
     </row>
     <row r="85" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="P85" s="7"/>
-      <c r="Q85" s="7"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
     </row>
     <row r="86" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="P86" s="7"/>
-      <c r="Q86" s="7"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
     </row>
     <row r="87" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="P87" s="7"/>
-      <c r="Q87" s="7"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
     </row>
     <row r="88" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="P88" s="7"/>
-      <c r="Q88" s="7"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
     </row>
     <row r="89" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="P89" s="7"/>
-      <c r="Q89" s="7"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
     </row>
     <row r="90" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-      <c r="P90" s="7"/>
-      <c r="Q90" s="7"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
     </row>
     <row r="91" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="P91" s="7"/>
-      <c r="Q91" s="7"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
     </row>
     <row r="92" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="P92" s="7"/>
-      <c r="Q92" s="7"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
     </row>
     <row r="93" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="P93" s="7"/>
-      <c r="Q93" s="7"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
     </row>
     <row r="94" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="P94" s="7"/>
-      <c r="Q94" s="7"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
     </row>
     <row r="95" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-      <c r="P95" s="7"/>
-      <c r="Q95" s="7"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
     </row>
     <row r="96" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="P96" s="7"/>
-      <c r="Q96" s="7"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="P96" s="4"/>
+      <c r="Q96" s="4"/>
     </row>
     <row r="97" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-      <c r="P97" s="7"/>
-      <c r="Q97" s="7"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
     </row>
     <row r="98" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="P98" s="7"/>
-      <c r="Q98" s="7"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="P98" s="4"/>
+      <c r="Q98" s="4"/>
     </row>
     <row r="99" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
-      <c r="P99" s="7"/>
-      <c r="Q99" s="7"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="P99" s="4"/>
+      <c r="Q99" s="4"/>
     </row>
     <row r="100" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
-      <c r="P100" s="7"/>
-      <c r="Q100" s="7"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="P100" s="4"/>
+      <c r="Q100" s="4"/>
     </row>
     <row r="101" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-      <c r="P101" s="7"/>
-      <c r="Q101" s="7"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="P101" s="4"/>
+      <c r="Q101" s="4"/>
     </row>
     <row r="102" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
-      <c r="P102" s="7"/>
-      <c r="Q102" s="7"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="P102" s="4"/>
+      <c r="Q102" s="4"/>
     </row>
     <row r="103" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
-      <c r="P103" s="7"/>
-      <c r="Q103" s="7"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="P103" s="4"/>
+      <c r="Q103" s="4"/>
     </row>
     <row r="104" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G104" s="7"/>
-      <c r="H104" s="7"/>
-      <c r="P104" s="7"/>
-      <c r="Q104" s="7"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="P104" s="4"/>
+      <c r="Q104" s="4"/>
     </row>
     <row r="105" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="P105" s="7"/>
-      <c r="Q105" s="7"/>
+      <c r="P105" s="4"/>
+      <c r="Q105" s="4"/>
     </row>
     <row r="106" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="P106" s="7"/>
-      <c r="Q106" s="7"/>
+      <c r="P106" s="4"/>
+      <c r="Q106" s="4"/>
     </row>
     <row r="107" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="P107" s="7"/>
-      <c r="Q107" s="7"/>
+      <c r="P107" s="4"/>
+      <c r="Q107" s="4"/>
     </row>
     <row r="108" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="P108" s="7"/>
-      <c r="Q108" s="7"/>
+      <c r="P108" s="4"/>
+      <c r="Q108" s="4"/>
     </row>
     <row r="109" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="P109" s="7"/>
-      <c r="Q109" s="7"/>
+      <c r="P109" s="4"/>
+      <c r="Q109" s="4"/>
     </row>
     <row r="110" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="P110" s="7"/>
-      <c r="Q110" s="7"/>
+      <c r="P110" s="4"/>
+      <c r="Q110" s="4"/>
     </row>
     <row r="111" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="P111" s="7"/>
-      <c r="Q111" s="7"/>
+      <c r="P111" s="4"/>
+      <c r="Q111" s="4"/>
     </row>
     <row r="112" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="P112" s="7"/>
-      <c r="Q112" s="7"/>
+      <c r="P112" s="4"/>
+      <c r="Q112" s="4"/>
     </row>
     <row r="113" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P113" s="7"/>
-      <c r="Q113" s="7"/>
+      <c r="P113" s="4"/>
+      <c r="Q113" s="4"/>
     </row>
     <row r="114" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P114" s="7"/>
-      <c r="Q114" s="7"/>
+      <c r="P114" s="4"/>
+      <c r="Q114" s="4"/>
     </row>
     <row r="115" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P115" s="7"/>
-      <c r="Q115" s="7"/>
+      <c r="P115" s="4"/>
+      <c r="Q115" s="4"/>
     </row>
     <row r="116" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P116" s="7"/>
-      <c r="Q116" s="7"/>
+      <c r="P116" s="4"/>
+      <c r="Q116" s="4"/>
     </row>
     <row r="117" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P117" s="7"/>
-      <c r="Q117" s="7"/>
+      <c r="P117" s="4"/>
+      <c r="Q117" s="4"/>
     </row>
     <row r="118" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P118" s="7"/>
-      <c r="Q118" s="7"/>
+      <c r="P118" s="4"/>
+      <c r="Q118" s="4"/>
     </row>
     <row r="119" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P119" s="7"/>
-      <c r="Q119" s="7"/>
+      <c r="P119" s="4"/>
+      <c r="Q119" s="4"/>
     </row>
     <row r="120" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P120" s="7"/>
-      <c r="Q120" s="7"/>
+      <c r="P120" s="4"/>
+      <c r="Q120" s="4"/>
     </row>
     <row r="121" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P121" s="7"/>
-      <c r="Q121" s="7"/>
+      <c r="P121" s="4"/>
+      <c r="Q121" s="4"/>
     </row>
     <row r="122" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P122" s="7"/>
-      <c r="Q122" s="7"/>
+      <c r="P122" s="4"/>
+      <c r="Q122" s="4"/>
     </row>
     <row r="123" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P123" s="7"/>
-      <c r="Q123" s="7"/>
+      <c r="P123" s="4"/>
+      <c r="Q123" s="4"/>
     </row>
     <row r="124" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="P124" s="7"/>
-      <c r="Q124" s="7"/>
+      <c r="P124" s="4"/>
+      <c r="Q124" s="4"/>
     </row>
     <row r="125" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O125" s="7"/>
-      <c r="P125" s="7"/>
-      <c r="Q125" s="7"/>
+      <c r="O125" s="4"/>
+      <c r="P125" s="4"/>
+      <c r="Q125" s="4"/>
     </row>
     <row r="126" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O126" s="7"/>
-      <c r="P126" s="7"/>
-      <c r="Q126" s="7"/>
+      <c r="O126" s="4"/>
+      <c r="P126" s="4"/>
+      <c r="Q126" s="4"/>
     </row>
     <row r="127" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O127" s="7"/>
-      <c r="P127" s="7"/>
-      <c r="Q127" s="7"/>
+      <c r="O127" s="4"/>
+      <c r="P127" s="4"/>
+      <c r="Q127" s="4"/>
     </row>
     <row r="128" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O128" s="7"/>
-      <c r="P128" s="7"/>
-      <c r="Q128" s="7"/>
+      <c r="O128" s="4"/>
+      <c r="P128" s="4"/>
+      <c r="Q128" s="4"/>
     </row>
     <row r="129" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O129" s="7"/>
-      <c r="P129" s="7"/>
-      <c r="Q129" s="7"/>
+      <c r="O129" s="4"/>
+      <c r="P129" s="4"/>
+      <c r="Q129" s="4"/>
     </row>
     <row r="130" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O130" s="7"/>
-      <c r="P130" s="7"/>
-      <c r="Q130" s="7"/>
+      <c r="O130" s="4"/>
+      <c r="P130" s="4"/>
+      <c r="Q130" s="4"/>
     </row>
     <row r="131" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O131" s="7"/>
-      <c r="P131" s="7"/>
-      <c r="Q131" s="7"/>
+      <c r="O131" s="4"/>
+      <c r="P131" s="4"/>
+      <c r="Q131" s="4"/>
     </row>
     <row r="132" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O132" s="7"/>
-      <c r="P132" s="7"/>
-      <c r="Q132" s="7"/>
+      <c r="O132" s="4"/>
+      <c r="P132" s="4"/>
+      <c r="Q132" s="4"/>
     </row>
     <row r="133" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O133" s="7"/>
-      <c r="P133" s="7"/>
-      <c r="Q133" s="7"/>
+      <c r="O133" s="4"/>
+      <c r="P133" s="4"/>
+      <c r="Q133" s="4"/>
     </row>
     <row r="134" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O134" s="7"/>
-      <c r="P134" s="7"/>
-      <c r="Q134" s="7"/>
+      <c r="O134" s="4"/>
+      <c r="P134" s="4"/>
+      <c r="Q134" s="4"/>
     </row>
     <row r="135" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O135" s="7"/>
-      <c r="P135" s="7"/>
-      <c r="Q135" s="7"/>
+      <c r="O135" s="4"/>
+      <c r="P135" s="4"/>
+      <c r="Q135" s="4"/>
     </row>
     <row r="136" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O136" s="7"/>
-      <c r="P136" s="7"/>
-      <c r="Q136" s="7"/>
+      <c r="O136" s="4"/>
+      <c r="P136" s="4"/>
+      <c r="Q136" s="4"/>
     </row>
     <row r="137" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O137" s="7"/>
-      <c r="P137" s="7"/>
-      <c r="Q137" s="7"/>
+      <c r="O137" s="4"/>
+      <c r="P137" s="4"/>
+      <c r="Q137" s="4"/>
     </row>
     <row r="138" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O138" s="7"/>
-      <c r="P138" s="7"/>
-      <c r="Q138" s="7"/>
+      <c r="O138" s="4"/>
+      <c r="P138" s="4"/>
+      <c r="Q138" s="4"/>
     </row>
     <row r="139" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O139" s="7"/>
-      <c r="P139" s="7"/>
-      <c r="Q139" s="7"/>
+      <c r="O139" s="4"/>
+      <c r="P139" s="4"/>
+      <c r="Q139" s="4"/>
     </row>
     <row r="140" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O140" s="7"/>
-      <c r="P140" s="7"/>
-      <c r="Q140" s="7"/>
+      <c r="O140" s="4"/>
+      <c r="P140" s="4"/>
+      <c r="Q140" s="4"/>
     </row>
     <row r="141" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O141" s="7"/>
-      <c r="P141" s="7"/>
-      <c r="Q141" s="7"/>
+      <c r="O141" s="4"/>
+      <c r="P141" s="4"/>
+      <c r="Q141" s="4"/>
     </row>
     <row r="142" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O142" s="7"/>
-      <c r="P142" s="7"/>
-      <c r="Q142" s="7"/>
+      <c r="O142" s="4"/>
+      <c r="P142" s="4"/>
+      <c r="Q142" s="4"/>
     </row>
     <row r="143" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O143" s="7"/>
-      <c r="P143" s="7"/>
-      <c r="Q143" s="7"/>
+      <c r="O143" s="4"/>
+      <c r="P143" s="4"/>
+      <c r="Q143" s="4"/>
     </row>
     <row r="144" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O144" s="7"/>
-      <c r="P144" s="7"/>
-      <c r="Q144" s="7"/>
+      <c r="O144" s="4"/>
+      <c r="P144" s="4"/>
+      <c r="Q144" s="4"/>
     </row>
     <row r="145" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O145" s="7"/>
-      <c r="P145" s="7"/>
-      <c r="Q145" s="7"/>
+      <c r="O145" s="4"/>
+      <c r="P145" s="4"/>
+      <c r="Q145" s="4"/>
     </row>
     <row r="146" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O146" s="7"/>
-      <c r="P146" s="7"/>
-      <c r="Q146" s="7"/>
+      <c r="O146" s="4"/>
+      <c r="P146" s="4"/>
+      <c r="Q146" s="4"/>
     </row>
     <row r="147" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O147" s="7"/>
-      <c r="P147" s="7"/>
-      <c r="Q147" s="7"/>
+      <c r="O147" s="4"/>
+      <c r="P147" s="4"/>
+      <c r="Q147" s="4"/>
     </row>
     <row r="148" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O148" s="7"/>
-      <c r="P148" s="7"/>
-      <c r="Q148" s="7"/>
+      <c r="O148" s="4"/>
+      <c r="P148" s="4"/>
+      <c r="Q148" s="4"/>
     </row>
     <row r="149" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O149" s="7"/>
-      <c r="P149" s="7"/>
-      <c r="Q149" s="7"/>
+      <c r="O149" s="4"/>
+      <c r="P149" s="4"/>
+      <c r="Q149" s="4"/>
     </row>
     <row r="150" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O150" s="7"/>
-      <c r="P150" s="7"/>
-      <c r="Q150" s="7"/>
+      <c r="O150" s="4"/>
+      <c r="P150" s="4"/>
+      <c r="Q150" s="4"/>
     </row>
     <row r="151" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O151" s="7"/>
-      <c r="P151" s="7"/>
-      <c r="Q151" s="7"/>
+      <c r="O151" s="4"/>
+      <c r="P151" s="4"/>
+      <c r="Q151" s="4"/>
     </row>
     <row r="152" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O152" s="7"/>
-      <c r="P152" s="7"/>
-      <c r="Q152" s="7"/>
+      <c r="O152" s="4"/>
+      <c r="P152" s="4"/>
+      <c r="Q152" s="4"/>
     </row>
     <row r="153" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O153" s="7"/>
-      <c r="P153" s="7"/>
-      <c r="Q153" s="7"/>
+      <c r="O153" s="4"/>
+      <c r="P153" s="4"/>
+      <c r="Q153" s="4"/>
     </row>
     <row r="154" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O154" s="7"/>
-      <c r="P154" s="7"/>
-      <c r="Q154" s="7"/>
+      <c r="O154" s="4"/>
+      <c r="P154" s="4"/>
+      <c r="Q154" s="4"/>
     </row>
     <row r="155" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O155" s="7"/>
-      <c r="P155" s="7"/>
-      <c r="Q155" s="7"/>
+      <c r="O155" s="4"/>
+      <c r="P155" s="4"/>
+      <c r="Q155" s="4"/>
     </row>
     <row r="156" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O156" s="7"/>
-      <c r="P156" s="7"/>
-      <c r="Q156" s="7"/>
+      <c r="O156" s="4"/>
+      <c r="P156" s="4"/>
+      <c r="Q156" s="4"/>
     </row>
     <row r="157" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O157" s="7"/>
-      <c r="P157" s="7"/>
-      <c r="Q157" s="7"/>
+      <c r="O157" s="4"/>
+      <c r="P157" s="4"/>
+      <c r="Q157" s="4"/>
     </row>
     <row r="158" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O158" s="7"/>
-      <c r="P158" s="7"/>
-      <c r="Q158" s="7"/>
+      <c r="O158" s="4"/>
+      <c r="P158" s="4"/>
+      <c r="Q158" s="4"/>
     </row>
     <row r="159" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O159" s="7"/>
-      <c r="P159" s="7"/>
-      <c r="Q159" s="7"/>
+      <c r="O159" s="4"/>
+      <c r="P159" s="4"/>
+      <c r="Q159" s="4"/>
     </row>
     <row r="160" spans="15:17" x14ac:dyDescent="0.2">
-      <c r="O160" s="7"/>
-      <c r="P160" s="7"/>
-      <c r="Q160" s="7"/>
+      <c r="O160" s="4"/>
+      <c r="P160" s="4"/>
+      <c r="Q160" s="4"/>
     </row>
     <row r="161" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="O161" s="7"/>
-      <c r="P161" s="7"/>
-      <c r="Q161" s="7"/>
+      <c r="O161" s="4"/>
+      <c r="P161" s="4"/>
+      <c r="Q161" s="4"/>
     </row>
     <row r="162" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="O162" s="7"/>
-      <c r="P162" s="7"/>
-      <c r="Q162" s="7"/>
+      <c r="O162" s="4"/>
+      <c r="P162" s="4"/>
+      <c r="Q162" s="4"/>
     </row>
     <row r="163" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="O163" s="7"/>
-      <c r="P163" s="7"/>
-      <c r="Q163" s="7"/>
+      <c r="O163" s="4"/>
+      <c r="P163" s="4"/>
+      <c r="Q163" s="4"/>
     </row>
     <row r="164" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="O164" s="7"/>
-      <c r="P164" s="7"/>
-      <c r="Q164" s="7"/>
+      <c r="O164" s="4"/>
+      <c r="P164" s="4"/>
+      <c r="Q164" s="4"/>
     </row>
     <row r="165" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="O165" s="7"/>
-      <c r="P165" s="7"/>
-      <c r="Q165" s="7"/>
+      <c r="O165" s="4"/>
+      <c r="P165" s="4"/>
+      <c r="Q165" s="4"/>
     </row>
     <row r="166" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="O166" s="7"/>
-      <c r="P166" s="7"/>
-      <c r="Q166" s="7"/>
+      <c r="O166" s="4"/>
+      <c r="P166" s="4"/>
+      <c r="Q166" s="4"/>
     </row>
     <row r="167" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="O167" s="7"/>
-      <c r="P167" s="7"/>
-      <c r="Q167" s="7"/>
+      <c r="O167" s="4"/>
+      <c r="P167" s="4"/>
+      <c r="Q167" s="4"/>
     </row>
     <row r="168" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="O168" s="7"/>
-      <c r="P168" s="7"/>
-      <c r="Q168" s="7"/>
+      <c r="O168" s="4"/>
+      <c r="P168" s="4"/>
+      <c r="Q168" s="4"/>
     </row>
     <row r="169" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N169" s="7"/>
-      <c r="O169" s="7"/>
-      <c r="P169" s="7"/>
-      <c r="Q169" s="7"/>
+      <c r="N169" s="4"/>
+      <c r="O169" s="4"/>
+      <c r="P169" s="4"/>
+      <c r="Q169" s="4"/>
     </row>
     <row r="170" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N170" s="7"/>
-      <c r="O170" s="7"/>
-      <c r="P170" s="7"/>
-      <c r="Q170" s="7"/>
+      <c r="N170" s="4"/>
+      <c r="O170" s="4"/>
+      <c r="P170" s="4"/>
+      <c r="Q170" s="4"/>
     </row>
     <row r="171" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N171" s="7"/>
-      <c r="O171" s="7"/>
-      <c r="P171" s="7"/>
-      <c r="Q171" s="7"/>
+      <c r="N171" s="4"/>
+      <c r="O171" s="4"/>
+      <c r="P171" s="4"/>
+      <c r="Q171" s="4"/>
     </row>
     <row r="172" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N172" s="7"/>
-      <c r="O172" s="7"/>
-      <c r="P172" s="7"/>
-      <c r="Q172" s="7"/>
+      <c r="N172" s="4"/>
+      <c r="O172" s="4"/>
+      <c r="P172" s="4"/>
+      <c r="Q172" s="4"/>
     </row>
     <row r="173" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N173" s="7"/>
-      <c r="O173" s="7"/>
-      <c r="P173" s="7"/>
-      <c r="Q173" s="7"/>
+      <c r="N173" s="4"/>
+      <c r="O173" s="4"/>
+      <c r="P173" s="4"/>
+      <c r="Q173" s="4"/>
     </row>
     <row r="174" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N174" s="7"/>
-      <c r="O174" s="7"/>
-      <c r="P174" s="7"/>
-      <c r="Q174" s="7"/>
+      <c r="N174" s="4"/>
+      <c r="O174" s="4"/>
+      <c r="P174" s="4"/>
+      <c r="Q174" s="4"/>
     </row>
     <row r="175" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N175" s="7"/>
-      <c r="O175" s="7"/>
-      <c r="P175" s="7"/>
-      <c r="Q175" s="7"/>
+      <c r="N175" s="4"/>
+      <c r="O175" s="4"/>
+      <c r="P175" s="4"/>
+      <c r="Q175" s="4"/>
     </row>
     <row r="176" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N176" s="7"/>
-      <c r="O176" s="7"/>
-      <c r="P176" s="7"/>
-      <c r="Q176" s="7"/>
+      <c r="N176" s="4"/>
+      <c r="O176" s="4"/>
+      <c r="P176" s="4"/>
+      <c r="Q176" s="4"/>
     </row>
     <row r="177" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N177" s="7"/>
-      <c r="O177" s="7"/>
-      <c r="P177" s="7"/>
-      <c r="Q177" s="7"/>
+      <c r="N177" s="4"/>
+      <c r="O177" s="4"/>
+      <c r="P177" s="4"/>
+      <c r="Q177" s="4"/>
     </row>
     <row r="178" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N178" s="7"/>
-      <c r="O178" s="7"/>
-      <c r="P178" s="7"/>
-      <c r="Q178" s="7"/>
+      <c r="N178" s="4"/>
+      <c r="O178" s="4"/>
+      <c r="P178" s="4"/>
+      <c r="Q178" s="4"/>
     </row>
     <row r="179" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N179" s="7"/>
-      <c r="O179" s="7"/>
-      <c r="P179" s="7"/>
-      <c r="Q179" s="7"/>
+      <c r="N179" s="4"/>
+      <c r="O179" s="4"/>
+      <c r="P179" s="4"/>
+      <c r="Q179" s="4"/>
     </row>
     <row r="180" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N180" s="7"/>
-      <c r="O180" s="7"/>
-      <c r="P180" s="7"/>
-      <c r="Q180" s="7"/>
+      <c r="N180" s="4"/>
+      <c r="O180" s="4"/>
+      <c r="P180" s="4"/>
+      <c r="Q180" s="4"/>
     </row>
     <row r="181" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N181" s="7"/>
-      <c r="O181" s="7"/>
-      <c r="P181" s="7"/>
-      <c r="Q181" s="7"/>
+      <c r="N181" s="4"/>
+      <c r="O181" s="4"/>
+      <c r="P181" s="4"/>
+      <c r="Q181" s="4"/>
     </row>
     <row r="182" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N182" s="7"/>
-      <c r="O182" s="7"/>
-      <c r="P182" s="7"/>
-      <c r="Q182" s="7"/>
+      <c r="N182" s="4"/>
+      <c r="O182" s="4"/>
+      <c r="P182" s="4"/>
+      <c r="Q182" s="4"/>
     </row>
     <row r="183" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N183" s="7"/>
-      <c r="O183" s="7"/>
-      <c r="P183" s="7"/>
-      <c r="Q183" s="7"/>
+      <c r="N183" s="4"/>
+      <c r="O183" s="4"/>
+      <c r="P183" s="4"/>
+      <c r="Q183" s="4"/>
     </row>
     <row r="184" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N184" s="7"/>
-      <c r="O184" s="7"/>
-      <c r="P184" s="7"/>
-      <c r="Q184" s="7"/>
+      <c r="N184" s="4"/>
+      <c r="O184" s="4"/>
+      <c r="P184" s="4"/>
+      <c r="Q184" s="4"/>
     </row>
     <row r="185" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N185" s="7"/>
-      <c r="O185" s="7"/>
-      <c r="P185" s="7"/>
-      <c r="Q185" s="7"/>
+      <c r="N185" s="4"/>
+      <c r="O185" s="4"/>
+      <c r="P185" s="4"/>
+      <c r="Q185" s="4"/>
     </row>
     <row r="186" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N186" s="7"/>
-      <c r="O186" s="7"/>
-      <c r="P186" s="7"/>
-      <c r="Q186" s="7"/>
+      <c r="N186" s="4"/>
+      <c r="O186" s="4"/>
+      <c r="P186" s="4"/>
+      <c r="Q186" s="4"/>
     </row>
     <row r="187" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N187" s="7"/>
-      <c r="O187" s="7"/>
-      <c r="P187" s="7"/>
-      <c r="Q187" s="7"/>
+      <c r="N187" s="4"/>
+      <c r="O187" s="4"/>
+      <c r="P187" s="4"/>
+      <c r="Q187" s="4"/>
     </row>
     <row r="188" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N188" s="7"/>
-      <c r="O188" s="7"/>
-      <c r="P188" s="7"/>
-      <c r="Q188" s="7"/>
+      <c r="N188" s="4"/>
+      <c r="O188" s="4"/>
+      <c r="P188" s="4"/>
+      <c r="Q188" s="4"/>
     </row>
     <row r="189" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N189" s="7"/>
-      <c r="O189" s="7"/>
-      <c r="P189" s="7"/>
-      <c r="Q189" s="7"/>
+      <c r="N189" s="4"/>
+      <c r="O189" s="4"/>
+      <c r="P189" s="4"/>
+      <c r="Q189" s="4"/>
     </row>
     <row r="190" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N190" s="7"/>
-      <c r="O190" s="7"/>
-      <c r="P190" s="7"/>
-      <c r="Q190" s="7"/>
+      <c r="N190" s="4"/>
+      <c r="O190" s="4"/>
+      <c r="P190" s="4"/>
+      <c r="Q190" s="4"/>
     </row>
     <row r="191" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N191" s="7"/>
-      <c r="O191" s="7"/>
-      <c r="P191" s="7"/>
-      <c r="Q191" s="7"/>
+      <c r="N191" s="4"/>
+      <c r="O191" s="4"/>
+      <c r="P191" s="4"/>
+      <c r="Q191" s="4"/>
     </row>
     <row r="192" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N192" s="7"/>
-      <c r="O192" s="7"/>
-      <c r="P192" s="7"/>
-      <c r="Q192" s="7"/>
+      <c r="N192" s="4"/>
+      <c r="O192" s="4"/>
+      <c r="P192" s="4"/>
+      <c r="Q192" s="4"/>
     </row>
     <row r="193" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N193" s="7"/>
-      <c r="O193" s="7"/>
-      <c r="P193" s="7"/>
-      <c r="Q193" s="7"/>
+      <c r="N193" s="4"/>
+      <c r="O193" s="4"/>
+      <c r="P193" s="4"/>
+      <c r="Q193" s="4"/>
     </row>
     <row r="194" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N194" s="7"/>
-      <c r="O194" s="7"/>
-      <c r="P194" s="7"/>
-      <c r="Q194" s="7"/>
+      <c r="N194" s="4"/>
+      <c r="O194" s="4"/>
+      <c r="P194" s="4"/>
+      <c r="Q194" s="4"/>
     </row>
     <row r="195" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N195" s="7"/>
-      <c r="O195" s="7"/>
-      <c r="P195" s="7"/>
-      <c r="Q195" s="7"/>
+      <c r="N195" s="4"/>
+      <c r="O195" s="4"/>
+      <c r="P195" s="4"/>
+      <c r="Q195" s="4"/>
     </row>
     <row r="196" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N196" s="7"/>
-      <c r="O196" s="7"/>
-      <c r="P196" s="7"/>
-      <c r="Q196" s="7"/>
+      <c r="N196" s="4"/>
+      <c r="O196" s="4"/>
+      <c r="P196" s="4"/>
+      <c r="Q196" s="4"/>
     </row>
     <row r="197" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N197" s="7"/>
-      <c r="O197" s="7"/>
-      <c r="P197" s="7"/>
-      <c r="Q197" s="7"/>
+      <c r="N197" s="4"/>
+      <c r="O197" s="4"/>
+      <c r="P197" s="4"/>
+      <c r="Q197" s="4"/>
     </row>
     <row r="198" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N198" s="7"/>
-      <c r="O198" s="7"/>
-      <c r="P198" s="7"/>
-      <c r="Q198" s="7"/>
+      <c r="N198" s="4"/>
+      <c r="O198" s="4"/>
+      <c r="P198" s="4"/>
+      <c r="Q198" s="4"/>
     </row>
     <row r="199" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N199" s="7"/>
-      <c r="O199" s="7"/>
-      <c r="P199" s="7"/>
-      <c r="Q199" s="7"/>
+      <c r="N199" s="4"/>
+      <c r="O199" s="4"/>
+      <c r="P199" s="4"/>
+      <c r="Q199" s="4"/>
     </row>
     <row r="200" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N200" s="7"/>
-      <c r="O200" s="7"/>
-      <c r="P200" s="7"/>
-      <c r="Q200" s="7"/>
+      <c r="N200" s="4"/>
+      <c r="O200" s="4"/>
+      <c r="P200" s="4"/>
+      <c r="Q200" s="4"/>
     </row>
     <row r="201" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N201" s="7"/>
-      <c r="O201" s="7"/>
-      <c r="P201" s="7"/>
-      <c r="Q201" s="7"/>
+      <c r="N201" s="4"/>
+      <c r="O201" s="4"/>
+      <c r="P201" s="4"/>
+      <c r="Q201" s="4"/>
     </row>
     <row r="202" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N202" s="7"/>
-      <c r="O202" s="7"/>
-      <c r="P202" s="7"/>
-      <c r="Q202" s="7"/>
+      <c r="N202" s="4"/>
+      <c r="O202" s="4"/>
+      <c r="P202" s="4"/>
+      <c r="Q202" s="4"/>
     </row>
     <row r="203" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N203" s="7"/>
-      <c r="O203" s="7"/>
-      <c r="P203" s="7"/>
-      <c r="Q203" s="7"/>
+      <c r="N203" s="4"/>
+      <c r="O203" s="4"/>
+      <c r="P203" s="4"/>
+      <c r="Q203" s="4"/>
     </row>
     <row r="204" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N204" s="7"/>
-      <c r="O204" s="7"/>
-      <c r="P204" s="7"/>
-      <c r="Q204" s="7"/>
+      <c r="N204" s="4"/>
+      <c r="O204" s="4"/>
+      <c r="P204" s="4"/>
+      <c r="Q204" s="4"/>
     </row>
     <row r="205" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N205" s="7"/>
-      <c r="O205" s="7"/>
-      <c r="P205" s="7"/>
-      <c r="Q205" s="7"/>
+      <c r="N205" s="4"/>
+      <c r="O205" s="4"/>
+      <c r="P205" s="4"/>
+      <c r="Q205" s="4"/>
     </row>
     <row r="206" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N206" s="7"/>
-      <c r="O206" s="7"/>
-      <c r="P206" s="7"/>
-      <c r="Q206" s="7"/>
+      <c r="N206" s="4"/>
+      <c r="O206" s="4"/>
+      <c r="P206" s="4"/>
+      <c r="Q206" s="4"/>
     </row>
     <row r="207" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N207" s="7"/>
-      <c r="O207" s="7"/>
-      <c r="P207" s="7"/>
-      <c r="Q207" s="7"/>
+      <c r="N207" s="4"/>
+      <c r="O207" s="4"/>
+      <c r="P207" s="4"/>
+      <c r="Q207" s="4"/>
     </row>
     <row r="208" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N208" s="7"/>
-      <c r="O208" s="7"/>
-      <c r="P208" s="7"/>
-      <c r="Q208" s="7"/>
+      <c r="N208" s="4"/>
+      <c r="O208" s="4"/>
+      <c r="P208" s="4"/>
+      <c r="Q208" s="4"/>
     </row>
     <row r="209" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N209" s="7"/>
-      <c r="O209" s="7"/>
-      <c r="P209" s="7"/>
-      <c r="Q209" s="7"/>
+      <c r="N209" s="4"/>
+      <c r="O209" s="4"/>
+      <c r="P209" s="4"/>
+      <c r="Q209" s="4"/>
     </row>
     <row r="210" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N210" s="7"/>
-      <c r="O210" s="7"/>
-      <c r="P210" s="7"/>
-      <c r="Q210" s="7"/>
+      <c r="N210" s="4"/>
+      <c r="O210" s="4"/>
+      <c r="P210" s="4"/>
+      <c r="Q210" s="4"/>
     </row>
     <row r="211" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N211" s="7"/>
-      <c r="O211" s="7"/>
-      <c r="P211" s="7"/>
-      <c r="Q211" s="7"/>
+      <c r="N211" s="4"/>
+      <c r="O211" s="4"/>
+      <c r="P211" s="4"/>
+      <c r="Q211" s="4"/>
     </row>
     <row r="212" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N212" s="7"/>
-      <c r="O212" s="7"/>
-      <c r="P212" s="7"/>
-      <c r="Q212" s="7"/>
+      <c r="N212" s="4"/>
+      <c r="O212" s="4"/>
+      <c r="P212" s="4"/>
+      <c r="Q212" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
